--- a/$Resource/Valeo_STLA _SASSY3_EOL_Template.xlsx
+++ b/$Resource/Valeo_STLA _SASSY3_EOL_Template.xlsx
@@ -354,6 +354,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
@@ -602,12 +609,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -672,6 +679,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -686,30 +700,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,7 +733,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -771,7 +764,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -785,6 +778,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -793,7 +793,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -801,8 +800,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -852,19 +852,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,13 +906,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,7 +948,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,13 +990,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,43 +1008,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,55 +1032,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1591,13 +1591,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1651,21 +1655,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1688,151 +1677,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="49" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2082,9 +2082,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2097,9 +2094,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2121,17 +2115,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2146,25 +2134,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2209,6 +2203,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2580,8 +2580,8 @@
   <sheetPr/>
   <dimension ref="A1:AM70"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:AJ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2639,9 +2639,9 @@
       <c r="AH1" s="8"/>
       <c r="AI1" s="8"/>
       <c r="AJ1" s="8"/>
-      <c r="AK1" s="123"/>
-      <c r="AL1" s="124"/>
-      <c r="AM1" s="124"/>
+      <c r="AK1" s="121"/>
+      <c r="AL1" s="122"/>
+      <c r="AM1" s="122"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:39">
       <c r="A2" s="9"/>
@@ -2690,9 +2690,9 @@
       <c r="AH2" s="66"/>
       <c r="AI2" s="66"/>
       <c r="AJ2" s="66"/>
-      <c r="AK2" s="125"/>
-      <c r="AL2" s="124"/>
-      <c r="AM2" s="124"/>
+      <c r="AK2" s="123"/>
+      <c r="AL2" s="122"/>
+      <c r="AM2" s="122"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:39">
       <c r="A3" s="9"/>
@@ -2733,9 +2733,9 @@
       <c r="AH3" s="69"/>
       <c r="AI3" s="69"/>
       <c r="AJ3" s="69"/>
-      <c r="AK3" s="126"/>
-      <c r="AL3" s="124"/>
-      <c r="AM3" s="124"/>
+      <c r="AK3" s="124"/>
+      <c r="AL3" s="122"/>
+      <c r="AM3" s="122"/>
     </row>
     <row r="4" spans="1:39">
       <c r="A4" s="9"/>
@@ -2776,9 +2776,9 @@
       <c r="AH4" s="72"/>
       <c r="AI4" s="71"/>
       <c r="AJ4" s="72"/>
-      <c r="AK4" s="126"/>
-      <c r="AL4" s="124"/>
-      <c r="AM4" s="124"/>
+      <c r="AK4" s="124"/>
+      <c r="AL4" s="122"/>
+      <c r="AM4" s="122"/>
     </row>
     <row r="5" spans="1:39">
       <c r="A5" s="9"/>
@@ -2819,11 +2819,11 @@
       <c r="AH5" s="75"/>
       <c r="AI5" s="74"/>
       <c r="AJ5" s="75"/>
-      <c r="AK5" s="126"/>
-      <c r="AL5" s="124"/>
-      <c r="AM5" s="124"/>
-    </row>
-    <row r="6" spans="1:39">
+      <c r="AK5" s="124"/>
+      <c r="AL5" s="122"/>
+      <c r="AM5" s="122"/>
+    </row>
+    <row r="6" ht="15.15" spans="1:39">
       <c r="A6" s="9"/>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
@@ -2862,9 +2862,9 @@
       <c r="AH6" s="78"/>
       <c r="AI6" s="77"/>
       <c r="AJ6" s="78"/>
-      <c r="AK6" s="126"/>
-      <c r="AL6" s="124"/>
-      <c r="AM6" s="124"/>
+      <c r="AK6" s="124"/>
+      <c r="AL6" s="122"/>
+      <c r="AM6" s="122"/>
     </row>
     <row r="7" spans="1:39">
       <c r="A7" s="9"/>
@@ -2893,49 +2893,49 @@
         <v>14</v>
       </c>
       <c r="P7" s="80"/>
-      <c r="Q7" s="119" t="s">
+      <c r="Q7" s="117" t="s">
         <v>14</v>
       </c>
       <c r="R7" s="30"/>
-      <c r="S7" s="119" t="s">
+      <c r="S7" s="117" t="s">
         <v>14</v>
       </c>
       <c r="T7" s="30"/>
-      <c r="U7" s="119" t="s">
+      <c r="U7" s="117" t="s">
         <v>14</v>
       </c>
       <c r="V7" s="30"/>
-      <c r="W7" s="119" t="s">
+      <c r="W7" s="117" t="s">
         <v>14</v>
       </c>
       <c r="X7" s="30"/>
-      <c r="Y7" s="119" t="s">
+      <c r="Y7" s="117" t="s">
         <v>14</v>
       </c>
       <c r="Z7" s="30"/>
-      <c r="AA7" s="119" t="s">
+      <c r="AA7" s="117" t="s">
         <v>14</v>
       </c>
       <c r="AB7" s="30"/>
-      <c r="AC7" s="119" t="s">
+      <c r="AC7" s="117" t="s">
         <v>14</v>
       </c>
       <c r="AD7" s="30"/>
-      <c r="AE7" s="119" t="s">
+      <c r="AE7" s="117" t="s">
         <v>14</v>
       </c>
       <c r="AF7" s="30"/>
-      <c r="AG7" s="119" t="s">
+      <c r="AG7" s="117" t="s">
         <v>14</v>
       </c>
       <c r="AH7" s="30"/>
-      <c r="AI7" s="119" t="s">
+      <c r="AI7" s="117" t="s">
         <v>14</v>
       </c>
       <c r="AJ7" s="30"/>
-      <c r="AK7" s="126"/>
-      <c r="AL7" s="124"/>
-      <c r="AM7" s="124"/>
+      <c r="AK7" s="124"/>
+      <c r="AL7" s="122"/>
+      <c r="AM7" s="122"/>
     </row>
     <row r="8" spans="1:39">
       <c r="A8" s="9"/>
@@ -2957,30 +2957,30 @@
       <c r="M8" s="32"/>
       <c r="N8" s="81"/>
       <c r="O8" s="82"/>
-      <c r="P8" s="83"/>
+      <c r="P8" s="75"/>
       <c r="Q8" s="82"/>
-      <c r="R8" s="83"/>
+      <c r="R8" s="75"/>
       <c r="S8" s="82"/>
-      <c r="T8" s="83"/>
+      <c r="T8" s="75"/>
       <c r="U8" s="82"/>
-      <c r="V8" s="83"/>
+      <c r="V8" s="75"/>
       <c r="W8" s="82"/>
-      <c r="X8" s="83"/>
+      <c r="X8" s="75"/>
       <c r="Y8" s="82"/>
-      <c r="Z8" s="83"/>
+      <c r="Z8" s="75"/>
       <c r="AA8" s="82"/>
-      <c r="AB8" s="83"/>
+      <c r="AB8" s="75"/>
       <c r="AC8" s="82"/>
-      <c r="AD8" s="83"/>
+      <c r="AD8" s="75"/>
       <c r="AE8" s="82"/>
-      <c r="AF8" s="83"/>
+      <c r="AF8" s="75"/>
       <c r="AG8" s="82"/>
-      <c r="AH8" s="83"/>
+      <c r="AH8" s="75"/>
       <c r="AI8" s="82"/>
-      <c r="AJ8" s="127"/>
-      <c r="AK8" s="126"/>
-      <c r="AL8" s="124"/>
-      <c r="AM8" s="124"/>
+      <c r="AJ8" s="125"/>
+      <c r="AK8" s="124"/>
+      <c r="AL8" s="122"/>
+      <c r="AM8" s="122"/>
     </row>
     <row r="9" spans="1:39">
       <c r="A9" s="9"/>
@@ -3002,30 +3002,30 @@
       <c r="M9" s="32"/>
       <c r="N9" s="81"/>
       <c r="O9" s="82"/>
-      <c r="P9" s="83"/>
+      <c r="P9" s="75"/>
       <c r="Q9" s="82"/>
-      <c r="R9" s="83"/>
+      <c r="R9" s="75"/>
       <c r="S9" s="82"/>
-      <c r="T9" s="83"/>
+      <c r="T9" s="75"/>
       <c r="U9" s="82"/>
-      <c r="V9" s="83"/>
+      <c r="V9" s="75"/>
       <c r="W9" s="82"/>
-      <c r="X9" s="83"/>
+      <c r="X9" s="75"/>
       <c r="Y9" s="82"/>
-      <c r="Z9" s="83"/>
+      <c r="Z9" s="75"/>
       <c r="AA9" s="82"/>
-      <c r="AB9" s="83"/>
+      <c r="AB9" s="75"/>
       <c r="AC9" s="82"/>
-      <c r="AD9" s="83"/>
+      <c r="AD9" s="75"/>
       <c r="AE9" s="82"/>
-      <c r="AF9" s="83"/>
+      <c r="AF9" s="75"/>
       <c r="AG9" s="82"/>
-      <c r="AH9" s="83"/>
+      <c r="AH9" s="75"/>
       <c r="AI9" s="82"/>
-      <c r="AJ9" s="127"/>
-      <c r="AK9" s="126"/>
-      <c r="AL9" s="124"/>
-      <c r="AM9" s="124"/>
+      <c r="AJ9" s="125"/>
+      <c r="AK9" s="124"/>
+      <c r="AL9" s="122"/>
+      <c r="AM9" s="122"/>
     </row>
     <row r="10" spans="1:39">
       <c r="A10" s="9"/>
@@ -3047,30 +3047,30 @@
       <c r="M10" s="32"/>
       <c r="N10" s="81"/>
       <c r="O10" s="82"/>
-      <c r="P10" s="83"/>
+      <c r="P10" s="75"/>
       <c r="Q10" s="82"/>
-      <c r="R10" s="83"/>
+      <c r="R10" s="75"/>
       <c r="S10" s="82"/>
-      <c r="T10" s="83"/>
+      <c r="T10" s="75"/>
       <c r="U10" s="82"/>
-      <c r="V10" s="83"/>
+      <c r="V10" s="75"/>
       <c r="W10" s="82"/>
-      <c r="X10" s="83"/>
+      <c r="X10" s="75"/>
       <c r="Y10" s="82"/>
-      <c r="Z10" s="83"/>
+      <c r="Z10" s="75"/>
       <c r="AA10" s="82"/>
-      <c r="AB10" s="83"/>
+      <c r="AB10" s="75"/>
       <c r="AC10" s="82"/>
-      <c r="AD10" s="83"/>
+      <c r="AD10" s="75"/>
       <c r="AE10" s="82"/>
-      <c r="AF10" s="83"/>
+      <c r="AF10" s="75"/>
       <c r="AG10" s="82"/>
-      <c r="AH10" s="83"/>
+      <c r="AH10" s="75"/>
       <c r="AI10" s="82"/>
-      <c r="AJ10" s="127"/>
-      <c r="AK10" s="126"/>
-      <c r="AL10" s="124"/>
-      <c r="AM10" s="124"/>
+      <c r="AJ10" s="125"/>
+      <c r="AK10" s="124"/>
+      <c r="AL10" s="122"/>
+      <c r="AM10" s="122"/>
     </row>
     <row r="11" spans="1:39">
       <c r="A11" s="9"/>
@@ -3092,30 +3092,30 @@
       <c r="M11" s="32"/>
       <c r="N11" s="81"/>
       <c r="O11" s="82"/>
-      <c r="P11" s="83"/>
+      <c r="P11" s="75"/>
       <c r="Q11" s="82"/>
-      <c r="R11" s="83"/>
+      <c r="R11" s="75"/>
       <c r="S11" s="82"/>
-      <c r="T11" s="83"/>
+      <c r="T11" s="75"/>
       <c r="U11" s="82"/>
-      <c r="V11" s="83"/>
+      <c r="V11" s="75"/>
       <c r="W11" s="82"/>
-      <c r="X11" s="83"/>
+      <c r="X11" s="75"/>
       <c r="Y11" s="82"/>
-      <c r="Z11" s="83"/>
+      <c r="Z11" s="75"/>
       <c r="AA11" s="82"/>
-      <c r="AB11" s="83"/>
+      <c r="AB11" s="75"/>
       <c r="AC11" s="82"/>
-      <c r="AD11" s="83"/>
+      <c r="AD11" s="75"/>
       <c r="AE11" s="82"/>
-      <c r="AF11" s="83"/>
+      <c r="AF11" s="75"/>
       <c r="AG11" s="82"/>
-      <c r="AH11" s="83"/>
+      <c r="AH11" s="75"/>
       <c r="AI11" s="82"/>
-      <c r="AJ11" s="127"/>
-      <c r="AK11" s="126"/>
-      <c r="AL11" s="124"/>
-      <c r="AM11" s="124"/>
+      <c r="AJ11" s="125"/>
+      <c r="AK11" s="124"/>
+      <c r="AL11" s="122"/>
+      <c r="AM11" s="122"/>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="9"/>
@@ -3137,30 +3137,30 @@
       <c r="M12" s="32"/>
       <c r="N12" s="81"/>
       <c r="O12" s="82"/>
-      <c r="P12" s="83"/>
+      <c r="P12" s="75"/>
       <c r="Q12" s="82"/>
-      <c r="R12" s="83"/>
+      <c r="R12" s="75"/>
       <c r="S12" s="82"/>
-      <c r="T12" s="83"/>
+      <c r="T12" s="75"/>
       <c r="U12" s="82"/>
-      <c r="V12" s="83"/>
+      <c r="V12" s="75"/>
       <c r="W12" s="82"/>
-      <c r="X12" s="83"/>
+      <c r="X12" s="75"/>
       <c r="Y12" s="82"/>
-      <c r="Z12" s="83"/>
+      <c r="Z12" s="75"/>
       <c r="AA12" s="82"/>
-      <c r="AB12" s="83"/>
+      <c r="AB12" s="75"/>
       <c r="AC12" s="82"/>
-      <c r="AD12" s="83"/>
+      <c r="AD12" s="75"/>
       <c r="AE12" s="82"/>
-      <c r="AF12" s="83"/>
+      <c r="AF12" s="75"/>
       <c r="AG12" s="82"/>
-      <c r="AH12" s="83"/>
+      <c r="AH12" s="75"/>
       <c r="AI12" s="82"/>
-      <c r="AJ12" s="127"/>
-      <c r="AK12" s="126"/>
-      <c r="AL12" s="124"/>
-      <c r="AM12" s="124"/>
+      <c r="AJ12" s="125"/>
+      <c r="AK12" s="124"/>
+      <c r="AL12" s="122"/>
+      <c r="AM12" s="122"/>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" s="9"/>
@@ -3182,30 +3182,30 @@
       <c r="M13" s="32"/>
       <c r="N13" s="81"/>
       <c r="O13" s="82"/>
-      <c r="P13" s="83"/>
+      <c r="P13" s="75"/>
       <c r="Q13" s="82"/>
-      <c r="R13" s="83"/>
+      <c r="R13" s="75"/>
       <c r="S13" s="82"/>
-      <c r="T13" s="83"/>
+      <c r="T13" s="75"/>
       <c r="U13" s="82"/>
-      <c r="V13" s="83"/>
+      <c r="V13" s="75"/>
       <c r="W13" s="82"/>
-      <c r="X13" s="83"/>
+      <c r="X13" s="75"/>
       <c r="Y13" s="82"/>
-      <c r="Z13" s="83"/>
+      <c r="Z13" s="75"/>
       <c r="AA13" s="82"/>
-      <c r="AB13" s="83"/>
+      <c r="AB13" s="75"/>
       <c r="AC13" s="82"/>
-      <c r="AD13" s="83"/>
+      <c r="AD13" s="75"/>
       <c r="AE13" s="82"/>
-      <c r="AF13" s="83"/>
+      <c r="AF13" s="75"/>
       <c r="AG13" s="82"/>
-      <c r="AH13" s="83"/>
+      <c r="AH13" s="75"/>
       <c r="AI13" s="82"/>
-      <c r="AJ13" s="127"/>
-      <c r="AK13" s="126"/>
-      <c r="AL13" s="124"/>
-      <c r="AM13" s="124"/>
+      <c r="AJ13" s="125"/>
+      <c r="AK13" s="124"/>
+      <c r="AL13" s="122"/>
+      <c r="AM13" s="122"/>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" s="9"/>
@@ -3227,30 +3227,30 @@
       <c r="M14" s="32"/>
       <c r="N14" s="81"/>
       <c r="O14" s="82"/>
-      <c r="P14" s="83"/>
+      <c r="P14" s="75"/>
       <c r="Q14" s="82"/>
-      <c r="R14" s="83"/>
+      <c r="R14" s="75"/>
       <c r="S14" s="82"/>
-      <c r="T14" s="83"/>
+      <c r="T14" s="75"/>
       <c r="U14" s="82"/>
-      <c r="V14" s="83"/>
+      <c r="V14" s="75"/>
       <c r="W14" s="82"/>
-      <c r="X14" s="83"/>
+      <c r="X14" s="75"/>
       <c r="Y14" s="82"/>
-      <c r="Z14" s="83"/>
+      <c r="Z14" s="75"/>
       <c r="AA14" s="82"/>
-      <c r="AB14" s="83"/>
+      <c r="AB14" s="75"/>
       <c r="AC14" s="82"/>
-      <c r="AD14" s="83"/>
+      <c r="AD14" s="75"/>
       <c r="AE14" s="82"/>
-      <c r="AF14" s="83"/>
+      <c r="AF14" s="75"/>
       <c r="AG14" s="82"/>
-      <c r="AH14" s="83"/>
+      <c r="AH14" s="75"/>
       <c r="AI14" s="82"/>
-      <c r="AJ14" s="127"/>
-      <c r="AK14" s="126"/>
-      <c r="AL14" s="124"/>
-      <c r="AM14" s="124"/>
+      <c r="AJ14" s="125"/>
+      <c r="AK14" s="124"/>
+      <c r="AL14" s="122"/>
+      <c r="AM14" s="122"/>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" s="9"/>
@@ -3272,30 +3272,30 @@
       <c r="M15" s="32"/>
       <c r="N15" s="81"/>
       <c r="O15" s="82"/>
-      <c r="P15" s="83"/>
+      <c r="P15" s="75"/>
       <c r="Q15" s="82"/>
-      <c r="R15" s="83"/>
+      <c r="R15" s="75"/>
       <c r="S15" s="82"/>
-      <c r="T15" s="83"/>
+      <c r="T15" s="75"/>
       <c r="U15" s="82"/>
-      <c r="V15" s="83"/>
+      <c r="V15" s="75"/>
       <c r="W15" s="82"/>
-      <c r="X15" s="83"/>
+      <c r="X15" s="75"/>
       <c r="Y15" s="82"/>
-      <c r="Z15" s="83"/>
+      <c r="Z15" s="75"/>
       <c r="AA15" s="82"/>
-      <c r="AB15" s="83"/>
+      <c r="AB15" s="75"/>
       <c r="AC15" s="82"/>
-      <c r="AD15" s="83"/>
+      <c r="AD15" s="75"/>
       <c r="AE15" s="82"/>
-      <c r="AF15" s="83"/>
+      <c r="AF15" s="75"/>
       <c r="AG15" s="82"/>
-      <c r="AH15" s="83"/>
+      <c r="AH15" s="75"/>
       <c r="AI15" s="82"/>
-      <c r="AJ15" s="127"/>
-      <c r="AK15" s="126"/>
-      <c r="AL15" s="124"/>
-      <c r="AM15" s="124"/>
+      <c r="AJ15" s="125"/>
+      <c r="AK15" s="124"/>
+      <c r="AL15" s="122"/>
+      <c r="AM15" s="122"/>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" s="9"/>
@@ -3317,30 +3317,30 @@
       <c r="M16" s="32"/>
       <c r="N16" s="81"/>
       <c r="O16" s="82"/>
-      <c r="P16" s="83"/>
+      <c r="P16" s="75"/>
       <c r="Q16" s="82"/>
-      <c r="R16" s="83"/>
+      <c r="R16" s="75"/>
       <c r="S16" s="82"/>
-      <c r="T16" s="83"/>
+      <c r="T16" s="75"/>
       <c r="U16" s="82"/>
-      <c r="V16" s="83"/>
+      <c r="V16" s="75"/>
       <c r="W16" s="82"/>
-      <c r="X16" s="83"/>
+      <c r="X16" s="75"/>
       <c r="Y16" s="82"/>
-      <c r="Z16" s="83"/>
+      <c r="Z16" s="75"/>
       <c r="AA16" s="82"/>
-      <c r="AB16" s="83"/>
+      <c r="AB16" s="75"/>
       <c r="AC16" s="82"/>
-      <c r="AD16" s="83"/>
+      <c r="AD16" s="75"/>
       <c r="AE16" s="82"/>
-      <c r="AF16" s="83"/>
+      <c r="AF16" s="75"/>
       <c r="AG16" s="82"/>
-      <c r="AH16" s="83"/>
+      <c r="AH16" s="75"/>
       <c r="AI16" s="82"/>
-      <c r="AJ16" s="127"/>
-      <c r="AK16" s="126"/>
-      <c r="AL16" s="124"/>
-      <c r="AM16" s="124"/>
+      <c r="AJ16" s="125"/>
+      <c r="AK16" s="124"/>
+      <c r="AL16" s="122"/>
+      <c r="AM16" s="122"/>
     </row>
     <row r="17" ht="15.15" spans="1:39">
       <c r="A17" s="9"/>
@@ -3354,38 +3354,38 @@
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
-      <c r="J17" s="84" t="s">
+      <c r="J17" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="88"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="78"/>
       <c r="Q17" s="82"/>
-      <c r="R17" s="83"/>
+      <c r="R17" s="75"/>
       <c r="S17" s="82"/>
-      <c r="T17" s="83"/>
+      <c r="T17" s="75"/>
       <c r="U17" s="82"/>
-      <c r="V17" s="83"/>
+      <c r="V17" s="75"/>
       <c r="W17" s="82"/>
-      <c r="X17" s="83"/>
+      <c r="X17" s="75"/>
       <c r="Y17" s="82"/>
-      <c r="Z17" s="83"/>
+      <c r="Z17" s="75"/>
       <c r="AA17" s="82"/>
-      <c r="AB17" s="83"/>
+      <c r="AB17" s="75"/>
       <c r="AC17" s="82"/>
-      <c r="AD17" s="83"/>
+      <c r="AD17" s="75"/>
       <c r="AE17" s="82"/>
-      <c r="AF17" s="83"/>
+      <c r="AF17" s="75"/>
       <c r="AG17" s="82"/>
-      <c r="AH17" s="83"/>
+      <c r="AH17" s="75"/>
       <c r="AI17" s="82"/>
-      <c r="AJ17" s="127"/>
-      <c r="AK17" s="126"/>
-      <c r="AL17" s="124"/>
-      <c r="AM17" s="124"/>
+      <c r="AJ17" s="125"/>
+      <c r="AK17" s="124"/>
+      <c r="AL17" s="122"/>
+      <c r="AM17" s="122"/>
     </row>
     <row r="18" spans="1:39">
       <c r="A18" s="9"/>
@@ -3399,86 +3399,86 @@
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
-      <c r="J18" s="89" t="s">
+      <c r="J18" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="90"/>
-      <c r="L18" s="91" t="s">
+      <c r="K18" s="88"/>
+      <c r="L18" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="M18" s="90"/>
-      <c r="N18" s="92" t="s">
+      <c r="M18" s="88"/>
+      <c r="N18" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="O18" s="89" t="s">
+      <c r="O18" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="P18" s="93" t="s">
+      <c r="P18" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="Q18" s="89" t="s">
+      <c r="Q18" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="R18" s="93" t="s">
+      <c r="R18" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="S18" s="89" t="s">
+      <c r="S18" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="T18" s="93" t="s">
+      <c r="T18" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="U18" s="89" t="s">
+      <c r="U18" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="V18" s="93" t="s">
+      <c r="V18" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="W18" s="89" t="s">
+      <c r="W18" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="X18" s="93" t="s">
+      <c r="X18" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="Y18" s="89" t="s">
+      <c r="Y18" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="Z18" s="93" t="s">
+      <c r="Z18" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="AA18" s="89" t="s">
+      <c r="AA18" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="AB18" s="93" t="s">
+      <c r="AB18" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="AC18" s="89" t="s">
+      <c r="AC18" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="AD18" s="93" t="s">
+      <c r="AD18" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="AE18" s="89" t="s">
+      <c r="AE18" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="AF18" s="93" t="s">
+      <c r="AF18" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="AG18" s="89" t="s">
+      <c r="AG18" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="AH18" s="93" t="s">
+      <c r="AH18" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="AI18" s="89" t="s">
+      <c r="AI18" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="AJ18" s="89" t="s">
+      <c r="AJ18" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="AK18" s="126"/>
-      <c r="AL18" s="124"/>
-      <c r="AM18" s="124"/>
+      <c r="AK18" s="124"/>
+      <c r="AL18" s="122"/>
+      <c r="AM18" s="122"/>
     </row>
     <row r="19" spans="1:39">
       <c r="A19" s="9"/>
@@ -3492,38 +3492,38 @@
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
-      <c r="J19" s="94" t="s">
+      <c r="J19" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="95"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="98"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="98"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="98"/>
-      <c r="T19" s="99"/>
-      <c r="U19" s="98"/>
-      <c r="V19" s="99"/>
-      <c r="W19" s="98"/>
-      <c r="X19" s="99"/>
-      <c r="Y19" s="98"/>
-      <c r="Z19" s="99"/>
-      <c r="AA19" s="98"/>
-      <c r="AB19" s="99"/>
-      <c r="AC19" s="98"/>
-      <c r="AD19" s="99"/>
-      <c r="AE19" s="98"/>
-      <c r="AF19" s="99"/>
-      <c r="AG19" s="98"/>
-      <c r="AH19" s="99"/>
-      <c r="AI19" s="98"/>
-      <c r="AJ19" s="98"/>
-      <c r="AK19" s="126"/>
-      <c r="AL19" s="124"/>
-      <c r="AM19" s="124"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="82"/>
+      <c r="T19" s="95"/>
+      <c r="U19" s="82"/>
+      <c r="V19" s="95"/>
+      <c r="W19" s="82"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="82"/>
+      <c r="Z19" s="95"/>
+      <c r="AA19" s="82"/>
+      <c r="AB19" s="95"/>
+      <c r="AC19" s="82"/>
+      <c r="AD19" s="95"/>
+      <c r="AE19" s="82"/>
+      <c r="AF19" s="95"/>
+      <c r="AG19" s="82"/>
+      <c r="AH19" s="95"/>
+      <c r="AI19" s="82"/>
+      <c r="AJ19" s="82"/>
+      <c r="AK19" s="124"/>
+      <c r="AL19" s="122"/>
+      <c r="AM19" s="122"/>
     </row>
     <row r="20" spans="1:39">
       <c r="A20" s="9"/>
@@ -3537,38 +3537,38 @@
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
-      <c r="J20" s="94" t="s">
+      <c r="J20" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="K20" s="95"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="98"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="98"/>
-      <c r="R20" s="99"/>
-      <c r="S20" s="98"/>
-      <c r="T20" s="99"/>
-      <c r="U20" s="98"/>
-      <c r="V20" s="99"/>
-      <c r="W20" s="98"/>
-      <c r="X20" s="99"/>
-      <c r="Y20" s="98"/>
-      <c r="Z20" s="99"/>
-      <c r="AA20" s="98"/>
-      <c r="AB20" s="99"/>
-      <c r="AC20" s="98"/>
-      <c r="AD20" s="99"/>
-      <c r="AE20" s="98"/>
-      <c r="AF20" s="99"/>
-      <c r="AG20" s="98"/>
-      <c r="AH20" s="99"/>
-      <c r="AI20" s="98"/>
-      <c r="AJ20" s="98"/>
-      <c r="AK20" s="126"/>
-      <c r="AL20" s="124"/>
-      <c r="AM20" s="124"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="95"/>
+      <c r="U20" s="82"/>
+      <c r="V20" s="95"/>
+      <c r="W20" s="82"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="82"/>
+      <c r="Z20" s="95"/>
+      <c r="AA20" s="82"/>
+      <c r="AB20" s="95"/>
+      <c r="AC20" s="82"/>
+      <c r="AD20" s="95"/>
+      <c r="AE20" s="82"/>
+      <c r="AF20" s="95"/>
+      <c r="AG20" s="82"/>
+      <c r="AH20" s="95"/>
+      <c r="AI20" s="82"/>
+      <c r="AJ20" s="82"/>
+      <c r="AK20" s="124"/>
+      <c r="AL20" s="122"/>
+      <c r="AM20" s="122"/>
     </row>
     <row r="21" spans="1:39">
       <c r="A21" s="9"/>
@@ -3581,35 +3581,35 @@
       <c r="H21" s="32"/>
       <c r="I21" s="32"/>
       <c r="J21" s="31"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="98"/>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="98"/>
-      <c r="R21" s="99"/>
-      <c r="S21" s="98"/>
-      <c r="T21" s="99"/>
-      <c r="U21" s="98"/>
-      <c r="V21" s="99"/>
-      <c r="W21" s="98"/>
-      <c r="X21" s="99"/>
-      <c r="Y21" s="98"/>
-      <c r="Z21" s="99"/>
-      <c r="AA21" s="98"/>
-      <c r="AB21" s="99"/>
-      <c r="AC21" s="98"/>
-      <c r="AD21" s="99"/>
-      <c r="AE21" s="98"/>
-      <c r="AF21" s="99"/>
-      <c r="AG21" s="98"/>
-      <c r="AH21" s="99"/>
-      <c r="AI21" s="98"/>
-      <c r="AJ21" s="98"/>
-      <c r="AK21" s="126"/>
-      <c r="AL21" s="124"/>
-      <c r="AM21" s="124"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="82"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="82"/>
+      <c r="T21" s="95"/>
+      <c r="U21" s="82"/>
+      <c r="V21" s="95"/>
+      <c r="W21" s="82"/>
+      <c r="X21" s="95"/>
+      <c r="Y21" s="82"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="82"/>
+      <c r="AB21" s="95"/>
+      <c r="AC21" s="82"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="82"/>
+      <c r="AF21" s="95"/>
+      <c r="AG21" s="82"/>
+      <c r="AH21" s="95"/>
+      <c r="AI21" s="82"/>
+      <c r="AJ21" s="82"/>
+      <c r="AK21" s="124"/>
+      <c r="AL21" s="122"/>
+      <c r="AM21" s="122"/>
     </row>
     <row r="22" spans="1:39">
       <c r="A22" s="9"/>
@@ -3622,35 +3622,35 @@
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
       <c r="J22" s="31"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="98"/>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="99"/>
-      <c r="S22" s="98"/>
-      <c r="T22" s="99"/>
-      <c r="U22" s="98"/>
-      <c r="V22" s="99"/>
-      <c r="W22" s="98"/>
-      <c r="X22" s="99"/>
-      <c r="Y22" s="98"/>
-      <c r="Z22" s="99"/>
-      <c r="AA22" s="98"/>
-      <c r="AB22" s="99"/>
-      <c r="AC22" s="98"/>
-      <c r="AD22" s="99"/>
-      <c r="AE22" s="98"/>
-      <c r="AF22" s="99"/>
-      <c r="AG22" s="98"/>
-      <c r="AH22" s="99"/>
-      <c r="AI22" s="98"/>
-      <c r="AJ22" s="98"/>
-      <c r="AK22" s="126"/>
-      <c r="AL22" s="124"/>
-      <c r="AM22" s="124"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="95"/>
+      <c r="U22" s="82"/>
+      <c r="V22" s="95"/>
+      <c r="W22" s="82"/>
+      <c r="X22" s="95"/>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="95"/>
+      <c r="AA22" s="82"/>
+      <c r="AB22" s="95"/>
+      <c r="AC22" s="82"/>
+      <c r="AD22" s="95"/>
+      <c r="AE22" s="82"/>
+      <c r="AF22" s="95"/>
+      <c r="AG22" s="82"/>
+      <c r="AH22" s="95"/>
+      <c r="AI22" s="82"/>
+      <c r="AJ22" s="82"/>
+      <c r="AK22" s="124"/>
+      <c r="AL22" s="122"/>
+      <c r="AM22" s="122"/>
     </row>
     <row r="23" spans="1:39">
       <c r="A23" s="9"/>
@@ -3663,35 +3663,35 @@
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
       <c r="J23" s="31"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="98"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="98"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="98"/>
-      <c r="T23" s="99"/>
-      <c r="U23" s="98"/>
-      <c r="V23" s="99"/>
-      <c r="W23" s="98"/>
-      <c r="X23" s="99"/>
-      <c r="Y23" s="98"/>
-      <c r="Z23" s="99"/>
-      <c r="AA23" s="98"/>
-      <c r="AB23" s="99"/>
-      <c r="AC23" s="98"/>
-      <c r="AD23" s="99"/>
-      <c r="AE23" s="98"/>
-      <c r="AF23" s="99"/>
-      <c r="AG23" s="98"/>
-      <c r="AH23" s="99"/>
-      <c r="AI23" s="98"/>
-      <c r="AJ23" s="98"/>
-      <c r="AK23" s="126"/>
-      <c r="AL23" s="124"/>
-      <c r="AM23" s="124"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="82"/>
+      <c r="T23" s="95"/>
+      <c r="U23" s="82"/>
+      <c r="V23" s="95"/>
+      <c r="W23" s="82"/>
+      <c r="X23" s="95"/>
+      <c r="Y23" s="82"/>
+      <c r="Z23" s="95"/>
+      <c r="AA23" s="82"/>
+      <c r="AB23" s="95"/>
+      <c r="AC23" s="82"/>
+      <c r="AD23" s="95"/>
+      <c r="AE23" s="82"/>
+      <c r="AF23" s="95"/>
+      <c r="AG23" s="82"/>
+      <c r="AH23" s="95"/>
+      <c r="AI23" s="82"/>
+      <c r="AJ23" s="82"/>
+      <c r="AK23" s="124"/>
+      <c r="AL23" s="122"/>
+      <c r="AM23" s="122"/>
     </row>
     <row r="24" spans="1:39">
       <c r="A24" s="9"/>
@@ -3704,35 +3704,35 @@
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
       <c r="J24" s="31"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="98"/>
-      <c r="R24" s="99"/>
-      <c r="S24" s="98"/>
-      <c r="T24" s="99"/>
-      <c r="U24" s="98"/>
-      <c r="V24" s="99"/>
-      <c r="W24" s="98"/>
-      <c r="X24" s="99"/>
-      <c r="Y24" s="98"/>
-      <c r="Z24" s="99"/>
-      <c r="AA24" s="98"/>
-      <c r="AB24" s="99"/>
-      <c r="AC24" s="98"/>
-      <c r="AD24" s="99"/>
-      <c r="AE24" s="98"/>
-      <c r="AF24" s="99"/>
-      <c r="AG24" s="98"/>
-      <c r="AH24" s="99"/>
-      <c r="AI24" s="98"/>
-      <c r="AJ24" s="98"/>
-      <c r="AK24" s="126"/>
-      <c r="AL24" s="124"/>
-      <c r="AM24" s="124"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="82"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="95"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="95"/>
+      <c r="W24" s="82"/>
+      <c r="X24" s="95"/>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="95"/>
+      <c r="AA24" s="82"/>
+      <c r="AB24" s="95"/>
+      <c r="AC24" s="82"/>
+      <c r="AD24" s="95"/>
+      <c r="AE24" s="82"/>
+      <c r="AF24" s="95"/>
+      <c r="AG24" s="82"/>
+      <c r="AH24" s="95"/>
+      <c r="AI24" s="82"/>
+      <c r="AJ24" s="82"/>
+      <c r="AK24" s="124"/>
+      <c r="AL24" s="122"/>
+      <c r="AM24" s="122"/>
     </row>
     <row r="25" ht="15.15" spans="1:39">
       <c r="A25" s="9"/>
@@ -3745,35 +3745,35 @@
       <c r="H25" s="37"/>
       <c r="I25" s="37"/>
       <c r="J25" s="36"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="104"/>
-      <c r="O25" s="105"/>
-      <c r="P25" s="106"/>
-      <c r="Q25" s="105"/>
-      <c r="R25" s="106"/>
-      <c r="S25" s="105"/>
-      <c r="T25" s="106"/>
-      <c r="U25" s="105"/>
-      <c r="V25" s="106"/>
-      <c r="W25" s="105"/>
-      <c r="X25" s="106"/>
-      <c r="Y25" s="105"/>
-      <c r="Z25" s="106"/>
-      <c r="AA25" s="105"/>
-      <c r="AB25" s="106"/>
-      <c r="AC25" s="105"/>
-      <c r="AD25" s="106"/>
-      <c r="AE25" s="105"/>
-      <c r="AF25" s="106"/>
-      <c r="AG25" s="105"/>
-      <c r="AH25" s="106"/>
-      <c r="AI25" s="105"/>
-      <c r="AJ25" s="105"/>
-      <c r="AK25" s="126"/>
-      <c r="AL25" s="124"/>
-      <c r="AM25" s="124"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="101"/>
+      <c r="R25" s="102"/>
+      <c r="S25" s="101"/>
+      <c r="T25" s="102"/>
+      <c r="U25" s="101"/>
+      <c r="V25" s="102"/>
+      <c r="W25" s="101"/>
+      <c r="X25" s="102"/>
+      <c r="Y25" s="101"/>
+      <c r="Z25" s="102"/>
+      <c r="AA25" s="101"/>
+      <c r="AB25" s="102"/>
+      <c r="AC25" s="101"/>
+      <c r="AD25" s="102"/>
+      <c r="AE25" s="101"/>
+      <c r="AF25" s="102"/>
+      <c r="AG25" s="101"/>
+      <c r="AH25" s="102"/>
+      <c r="AI25" s="101"/>
+      <c r="AJ25" s="101"/>
+      <c r="AK25" s="124"/>
+      <c r="AL25" s="122"/>
+      <c r="AM25" s="122"/>
     </row>
     <row r="26" ht="15.15" spans="1:39">
       <c r="A26" s="9"/>
@@ -3812,9 +3812,9 @@
       <c r="AH26" s="39"/>
       <c r="AI26" s="39"/>
       <c r="AJ26" s="39"/>
-      <c r="AK26" s="126"/>
-      <c r="AL26" s="124"/>
-      <c r="AM26" s="124"/>
+      <c r="AK26" s="124"/>
+      <c r="AL26" s="122"/>
+      <c r="AM26" s="122"/>
     </row>
     <row r="27" spans="1:39">
       <c r="A27" s="9"/>
@@ -3832,32 +3832,32 @@
       <c r="K27" s="41"/>
       <c r="L27" s="41"/>
       <c r="M27" s="41"/>
-      <c r="N27" s="107"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="108"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="108"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="108"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="108"/>
-      <c r="W27" s="47"/>
-      <c r="X27" s="108"/>
-      <c r="Y27" s="47"/>
-      <c r="Z27" s="108"/>
-      <c r="AA27" s="47"/>
-      <c r="AB27" s="108"/>
-      <c r="AC27" s="47"/>
-      <c r="AD27" s="108"/>
-      <c r="AE27" s="47"/>
-      <c r="AF27" s="108"/>
-      <c r="AG27" s="47"/>
-      <c r="AH27" s="108"/>
-      <c r="AI27" s="47"/>
-      <c r="AJ27" s="48"/>
-      <c r="AK27" s="126"/>
-      <c r="AL27" s="124"/>
-      <c r="AM27" s="124"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="104"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="104"/>
+      <c r="R27" s="105"/>
+      <c r="S27" s="104"/>
+      <c r="T27" s="105"/>
+      <c r="U27" s="104"/>
+      <c r="V27" s="105"/>
+      <c r="W27" s="104"/>
+      <c r="X27" s="105"/>
+      <c r="Y27" s="104"/>
+      <c r="Z27" s="105"/>
+      <c r="AA27" s="104"/>
+      <c r="AB27" s="105"/>
+      <c r="AC27" s="104"/>
+      <c r="AD27" s="105"/>
+      <c r="AE27" s="104"/>
+      <c r="AF27" s="105"/>
+      <c r="AG27" s="104"/>
+      <c r="AH27" s="105"/>
+      <c r="AI27" s="104"/>
+      <c r="AJ27" s="126"/>
+      <c r="AK27" s="124"/>
+      <c r="AL27" s="122"/>
+      <c r="AM27" s="122"/>
     </row>
     <row r="28" spans="1:39">
       <c r="A28" s="9"/>
@@ -3875,32 +3875,32 @@
       <c r="K28" s="43"/>
       <c r="L28" s="43"/>
       <c r="M28" s="43"/>
-      <c r="N28" s="109"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="100"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="100"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="100"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="100"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="100"/>
-      <c r="Y28" s="50"/>
-      <c r="Z28" s="100"/>
-      <c r="AA28" s="50"/>
-      <c r="AB28" s="100"/>
-      <c r="AC28" s="50"/>
-      <c r="AD28" s="100"/>
-      <c r="AE28" s="50"/>
-      <c r="AF28" s="100"/>
-      <c r="AG28" s="50"/>
-      <c r="AH28" s="100"/>
-      <c r="AI28" s="50"/>
-      <c r="AJ28" s="32"/>
-      <c r="AK28" s="126"/>
-      <c r="AL28" s="124"/>
-      <c r="AM28" s="124"/>
+      <c r="N28" s="106"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="74"/>
+      <c r="T28" s="75"/>
+      <c r="U28" s="74"/>
+      <c r="V28" s="75"/>
+      <c r="W28" s="74"/>
+      <c r="X28" s="75"/>
+      <c r="Y28" s="74"/>
+      <c r="Z28" s="75"/>
+      <c r="AA28" s="74"/>
+      <c r="AB28" s="75"/>
+      <c r="AC28" s="74"/>
+      <c r="AD28" s="75"/>
+      <c r="AE28" s="74"/>
+      <c r="AF28" s="75"/>
+      <c r="AG28" s="74"/>
+      <c r="AH28" s="75"/>
+      <c r="AI28" s="74"/>
+      <c r="AJ28" s="125"/>
+      <c r="AK28" s="124"/>
+      <c r="AL28" s="122"/>
+      <c r="AM28" s="122"/>
     </row>
     <row r="29" spans="1:39">
       <c r="A29" s="9"/>
@@ -3918,32 +3918,32 @@
       <c r="K29" s="43"/>
       <c r="L29" s="43"/>
       <c r="M29" s="43"/>
-      <c r="N29" s="109"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="100"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="100"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="100"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="100"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="100"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="100"/>
-      <c r="AA29" s="50"/>
-      <c r="AB29" s="100"/>
-      <c r="AC29" s="50"/>
-      <c r="AD29" s="100"/>
-      <c r="AE29" s="50"/>
-      <c r="AF29" s="100"/>
-      <c r="AG29" s="50"/>
-      <c r="AH29" s="100"/>
-      <c r="AI29" s="50"/>
-      <c r="AJ29" s="32"/>
-      <c r="AK29" s="126"/>
-      <c r="AL29" s="124"/>
-      <c r="AM29" s="124"/>
+      <c r="N29" s="106"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="74"/>
+      <c r="T29" s="75"/>
+      <c r="U29" s="74"/>
+      <c r="V29" s="75"/>
+      <c r="W29" s="74"/>
+      <c r="X29" s="75"/>
+      <c r="Y29" s="74"/>
+      <c r="Z29" s="75"/>
+      <c r="AA29" s="74"/>
+      <c r="AB29" s="75"/>
+      <c r="AC29" s="74"/>
+      <c r="AD29" s="75"/>
+      <c r="AE29" s="74"/>
+      <c r="AF29" s="75"/>
+      <c r="AG29" s="74"/>
+      <c r="AH29" s="75"/>
+      <c r="AI29" s="74"/>
+      <c r="AJ29" s="125"/>
+      <c r="AK29" s="124"/>
+      <c r="AL29" s="122"/>
+      <c r="AM29" s="122"/>
     </row>
     <row r="30" spans="1:39">
       <c r="A30" s="9"/>
@@ -3961,32 +3961,32 @@
       <c r="K30" s="43"/>
       <c r="L30" s="43"/>
       <c r="M30" s="43"/>
-      <c r="N30" s="109"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="100"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="100"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="100"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="100"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="100"/>
-      <c r="Y30" s="50"/>
-      <c r="Z30" s="100"/>
-      <c r="AA30" s="50"/>
-      <c r="AB30" s="100"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="100"/>
-      <c r="AE30" s="50"/>
-      <c r="AF30" s="100"/>
-      <c r="AG30" s="50"/>
-      <c r="AH30" s="100"/>
-      <c r="AI30" s="50"/>
-      <c r="AJ30" s="32"/>
-      <c r="AK30" s="126"/>
-      <c r="AL30" s="124"/>
-      <c r="AM30" s="124"/>
+      <c r="N30" s="106"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="75"/>
+      <c r="S30" s="74"/>
+      <c r="T30" s="75"/>
+      <c r="U30" s="74"/>
+      <c r="V30" s="75"/>
+      <c r="W30" s="74"/>
+      <c r="X30" s="75"/>
+      <c r="Y30" s="74"/>
+      <c r="Z30" s="75"/>
+      <c r="AA30" s="74"/>
+      <c r="AB30" s="75"/>
+      <c r="AC30" s="74"/>
+      <c r="AD30" s="75"/>
+      <c r="AE30" s="74"/>
+      <c r="AF30" s="75"/>
+      <c r="AG30" s="74"/>
+      <c r="AH30" s="75"/>
+      <c r="AI30" s="74"/>
+      <c r="AJ30" s="125"/>
+      <c r="AK30" s="124"/>
+      <c r="AL30" s="122"/>
+      <c r="AM30" s="122"/>
     </row>
     <row r="31" spans="1:39">
       <c r="A31" s="9"/>
@@ -4004,32 +4004,32 @@
       <c r="K31" s="43"/>
       <c r="L31" s="43"/>
       <c r="M31" s="43"/>
-      <c r="N31" s="109"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="100"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="100"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="100"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="100"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="100"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="100"/>
-      <c r="AA31" s="50"/>
-      <c r="AB31" s="100"/>
-      <c r="AC31" s="50"/>
-      <c r="AD31" s="100"/>
-      <c r="AE31" s="50"/>
-      <c r="AF31" s="100"/>
-      <c r="AG31" s="50"/>
-      <c r="AH31" s="100"/>
-      <c r="AI31" s="50"/>
-      <c r="AJ31" s="32"/>
-      <c r="AK31" s="126"/>
-      <c r="AL31" s="124"/>
-      <c r="AM31" s="124"/>
+      <c r="N31" s="106"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="75"/>
+      <c r="S31" s="74"/>
+      <c r="T31" s="75"/>
+      <c r="U31" s="74"/>
+      <c r="V31" s="75"/>
+      <c r="W31" s="74"/>
+      <c r="X31" s="75"/>
+      <c r="Y31" s="74"/>
+      <c r="Z31" s="75"/>
+      <c r="AA31" s="74"/>
+      <c r="AB31" s="75"/>
+      <c r="AC31" s="74"/>
+      <c r="AD31" s="75"/>
+      <c r="AE31" s="74"/>
+      <c r="AF31" s="75"/>
+      <c r="AG31" s="74"/>
+      <c r="AH31" s="75"/>
+      <c r="AI31" s="74"/>
+      <c r="AJ31" s="125"/>
+      <c r="AK31" s="124"/>
+      <c r="AL31" s="122"/>
+      <c r="AM31" s="122"/>
     </row>
     <row r="32" spans="1:39">
       <c r="A32" s="9"/>
@@ -4047,32 +4047,32 @@
       <c r="K32" s="43"/>
       <c r="L32" s="43"/>
       <c r="M32" s="43"/>
-      <c r="N32" s="109"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="100"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="100"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="100"/>
-      <c r="U32" s="50"/>
-      <c r="V32" s="100"/>
-      <c r="W32" s="50"/>
-      <c r="X32" s="100"/>
-      <c r="Y32" s="50"/>
-      <c r="Z32" s="100"/>
-      <c r="AA32" s="50"/>
-      <c r="AB32" s="100"/>
-      <c r="AC32" s="50"/>
-      <c r="AD32" s="100"/>
-      <c r="AE32" s="50"/>
-      <c r="AF32" s="100"/>
-      <c r="AG32" s="50"/>
-      <c r="AH32" s="100"/>
-      <c r="AI32" s="50"/>
-      <c r="AJ32" s="32"/>
-      <c r="AK32" s="126"/>
-      <c r="AL32" s="124"/>
-      <c r="AM32" s="124"/>
+      <c r="N32" s="106"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="75"/>
+      <c r="S32" s="74"/>
+      <c r="T32" s="75"/>
+      <c r="U32" s="74"/>
+      <c r="V32" s="75"/>
+      <c r="W32" s="74"/>
+      <c r="X32" s="75"/>
+      <c r="Y32" s="74"/>
+      <c r="Z32" s="75"/>
+      <c r="AA32" s="74"/>
+      <c r="AB32" s="75"/>
+      <c r="AC32" s="74"/>
+      <c r="AD32" s="75"/>
+      <c r="AE32" s="74"/>
+      <c r="AF32" s="75"/>
+      <c r="AG32" s="74"/>
+      <c r="AH32" s="75"/>
+      <c r="AI32" s="74"/>
+      <c r="AJ32" s="125"/>
+      <c r="AK32" s="124"/>
+      <c r="AL32" s="122"/>
+      <c r="AM32" s="122"/>
     </row>
     <row r="33" spans="1:39">
       <c r="A33" s="9"/>
@@ -4090,32 +4090,32 @@
       <c r="K33" s="43"/>
       <c r="L33" s="43"/>
       <c r="M33" s="43"/>
-      <c r="N33" s="109"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="100"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="100"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="100"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="100"/>
-      <c r="W33" s="50"/>
-      <c r="X33" s="100"/>
-      <c r="Y33" s="50"/>
-      <c r="Z33" s="100"/>
-      <c r="AA33" s="50"/>
-      <c r="AB33" s="100"/>
-      <c r="AC33" s="50"/>
-      <c r="AD33" s="100"/>
-      <c r="AE33" s="50"/>
-      <c r="AF33" s="100"/>
-      <c r="AG33" s="50"/>
-      <c r="AH33" s="100"/>
-      <c r="AI33" s="50"/>
-      <c r="AJ33" s="32"/>
-      <c r="AK33" s="126"/>
-      <c r="AL33" s="124"/>
-      <c r="AM33" s="124"/>
+      <c r="N33" s="106"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="74"/>
+      <c r="R33" s="75"/>
+      <c r="S33" s="74"/>
+      <c r="T33" s="75"/>
+      <c r="U33" s="74"/>
+      <c r="V33" s="75"/>
+      <c r="W33" s="74"/>
+      <c r="X33" s="75"/>
+      <c r="Y33" s="74"/>
+      <c r="Z33" s="75"/>
+      <c r="AA33" s="74"/>
+      <c r="AB33" s="75"/>
+      <c r="AC33" s="74"/>
+      <c r="AD33" s="75"/>
+      <c r="AE33" s="74"/>
+      <c r="AF33" s="75"/>
+      <c r="AG33" s="74"/>
+      <c r="AH33" s="75"/>
+      <c r="AI33" s="74"/>
+      <c r="AJ33" s="125"/>
+      <c r="AK33" s="124"/>
+      <c r="AL33" s="122"/>
+      <c r="AM33" s="122"/>
     </row>
     <row r="34" spans="1:39">
       <c r="A34" s="9"/>
@@ -4133,32 +4133,32 @@
       <c r="K34" s="43"/>
       <c r="L34" s="43"/>
       <c r="M34" s="43"/>
-      <c r="N34" s="109"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="100"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="100"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="100"/>
-      <c r="U34" s="50"/>
-      <c r="V34" s="100"/>
-      <c r="W34" s="50"/>
-      <c r="X34" s="100"/>
-      <c r="Y34" s="50"/>
-      <c r="Z34" s="100"/>
-      <c r="AA34" s="50"/>
-      <c r="AB34" s="100"/>
-      <c r="AC34" s="50"/>
-      <c r="AD34" s="100"/>
-      <c r="AE34" s="50"/>
-      <c r="AF34" s="100"/>
-      <c r="AG34" s="50"/>
-      <c r="AH34" s="100"/>
-      <c r="AI34" s="50"/>
-      <c r="AJ34" s="32"/>
-      <c r="AK34" s="126"/>
-      <c r="AL34" s="124"/>
-      <c r="AM34" s="124"/>
+      <c r="N34" s="106"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="75"/>
+      <c r="Q34" s="74"/>
+      <c r="R34" s="75"/>
+      <c r="S34" s="74"/>
+      <c r="T34" s="75"/>
+      <c r="U34" s="74"/>
+      <c r="V34" s="75"/>
+      <c r="W34" s="74"/>
+      <c r="X34" s="75"/>
+      <c r="Y34" s="74"/>
+      <c r="Z34" s="75"/>
+      <c r="AA34" s="74"/>
+      <c r="AB34" s="75"/>
+      <c r="AC34" s="74"/>
+      <c r="AD34" s="75"/>
+      <c r="AE34" s="74"/>
+      <c r="AF34" s="75"/>
+      <c r="AG34" s="74"/>
+      <c r="AH34" s="75"/>
+      <c r="AI34" s="74"/>
+      <c r="AJ34" s="125"/>
+      <c r="AK34" s="124"/>
+      <c r="AL34" s="122"/>
+      <c r="AM34" s="122"/>
     </row>
     <row r="35" spans="1:39">
       <c r="A35" s="9"/>
@@ -4176,32 +4176,32 @@
       <c r="K35" s="43"/>
       <c r="L35" s="43"/>
       <c r="M35" s="43"/>
-      <c r="N35" s="109"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="100"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="100"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="100"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="100"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="100"/>
-      <c r="Y35" s="50"/>
-      <c r="Z35" s="100"/>
-      <c r="AA35" s="50"/>
-      <c r="AB35" s="100"/>
-      <c r="AC35" s="50"/>
-      <c r="AD35" s="100"/>
-      <c r="AE35" s="50"/>
-      <c r="AF35" s="100"/>
-      <c r="AG35" s="50"/>
-      <c r="AH35" s="100"/>
-      <c r="AI35" s="50"/>
-      <c r="AJ35" s="32"/>
-      <c r="AK35" s="126"/>
-      <c r="AL35" s="124"/>
-      <c r="AM35" s="124"/>
+      <c r="N35" s="106"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="75"/>
+      <c r="Q35" s="74"/>
+      <c r="R35" s="75"/>
+      <c r="S35" s="74"/>
+      <c r="T35" s="75"/>
+      <c r="U35" s="74"/>
+      <c r="V35" s="75"/>
+      <c r="W35" s="74"/>
+      <c r="X35" s="75"/>
+      <c r="Y35" s="74"/>
+      <c r="Z35" s="75"/>
+      <c r="AA35" s="74"/>
+      <c r="AB35" s="75"/>
+      <c r="AC35" s="74"/>
+      <c r="AD35" s="75"/>
+      <c r="AE35" s="74"/>
+      <c r="AF35" s="75"/>
+      <c r="AG35" s="74"/>
+      <c r="AH35" s="75"/>
+      <c r="AI35" s="74"/>
+      <c r="AJ35" s="125"/>
+      <c r="AK35" s="124"/>
+      <c r="AL35" s="122"/>
+      <c r="AM35" s="122"/>
     </row>
     <row r="36" spans="1:39">
       <c r="A36" s="9"/>
@@ -4219,32 +4219,32 @@
       <c r="K36" s="43"/>
       <c r="L36" s="43"/>
       <c r="M36" s="43"/>
-      <c r="N36" s="109"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="100"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="100"/>
-      <c r="S36" s="50"/>
-      <c r="T36" s="100"/>
-      <c r="U36" s="50"/>
-      <c r="V36" s="100"/>
-      <c r="W36" s="50"/>
-      <c r="X36" s="100"/>
-      <c r="Y36" s="50"/>
-      <c r="Z36" s="100"/>
-      <c r="AA36" s="50"/>
-      <c r="AB36" s="100"/>
-      <c r="AC36" s="50"/>
-      <c r="AD36" s="100"/>
-      <c r="AE36" s="50"/>
-      <c r="AF36" s="100"/>
-      <c r="AG36" s="50"/>
-      <c r="AH36" s="100"/>
-      <c r="AI36" s="50"/>
-      <c r="AJ36" s="32"/>
-      <c r="AK36" s="126"/>
-      <c r="AL36" s="124"/>
-      <c r="AM36" s="124"/>
+      <c r="N36" s="106"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="75"/>
+      <c r="Q36" s="74"/>
+      <c r="R36" s="75"/>
+      <c r="S36" s="74"/>
+      <c r="T36" s="75"/>
+      <c r="U36" s="74"/>
+      <c r="V36" s="75"/>
+      <c r="W36" s="74"/>
+      <c r="X36" s="75"/>
+      <c r="Y36" s="74"/>
+      <c r="Z36" s="75"/>
+      <c r="AA36" s="74"/>
+      <c r="AB36" s="75"/>
+      <c r="AC36" s="74"/>
+      <c r="AD36" s="75"/>
+      <c r="AE36" s="74"/>
+      <c r="AF36" s="75"/>
+      <c r="AG36" s="74"/>
+      <c r="AH36" s="75"/>
+      <c r="AI36" s="74"/>
+      <c r="AJ36" s="125"/>
+      <c r="AK36" s="124"/>
+      <c r="AL36" s="122"/>
+      <c r="AM36" s="122"/>
     </row>
     <row r="37" ht="15.15" spans="1:39">
       <c r="A37" s="9"/>
@@ -4262,32 +4262,32 @@
       <c r="K37" s="45"/>
       <c r="L37" s="45"/>
       <c r="M37" s="45"/>
-      <c r="N37" s="110"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="101"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="101"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="101"/>
-      <c r="U37" s="52"/>
-      <c r="V37" s="101"/>
-      <c r="W37" s="52"/>
-      <c r="X37" s="101"/>
-      <c r="Y37" s="52"/>
-      <c r="Z37" s="101"/>
-      <c r="AA37" s="52"/>
-      <c r="AB37" s="101"/>
-      <c r="AC37" s="52"/>
-      <c r="AD37" s="101"/>
-      <c r="AE37" s="52"/>
-      <c r="AF37" s="101"/>
-      <c r="AG37" s="52"/>
-      <c r="AH37" s="101"/>
-      <c r="AI37" s="52"/>
-      <c r="AJ37" s="37"/>
-      <c r="AK37" s="126"/>
-      <c r="AL37" s="124"/>
-      <c r="AM37" s="124"/>
+      <c r="N37" s="107"/>
+      <c r="O37" s="98"/>
+      <c r="P37" s="99"/>
+      <c r="Q37" s="98"/>
+      <c r="R37" s="99"/>
+      <c r="S37" s="98"/>
+      <c r="T37" s="99"/>
+      <c r="U37" s="98"/>
+      <c r="V37" s="99"/>
+      <c r="W37" s="98"/>
+      <c r="X37" s="99"/>
+      <c r="Y37" s="98"/>
+      <c r="Z37" s="99"/>
+      <c r="AA37" s="98"/>
+      <c r="AB37" s="99"/>
+      <c r="AC37" s="98"/>
+      <c r="AD37" s="99"/>
+      <c r="AE37" s="98"/>
+      <c r="AF37" s="99"/>
+      <c r="AG37" s="98"/>
+      <c r="AH37" s="99"/>
+      <c r="AI37" s="98"/>
+      <c r="AJ37" s="127"/>
+      <c r="AK37" s="124"/>
+      <c r="AL37" s="122"/>
+      <c r="AM37" s="122"/>
     </row>
     <row r="38" ht="15.15" spans="1:39">
       <c r="A38" s="9"/>
@@ -4326,9 +4326,9 @@
       <c r="AH38" s="39"/>
       <c r="AI38" s="39"/>
       <c r="AJ38" s="39"/>
-      <c r="AK38" s="126"/>
-      <c r="AL38" s="124"/>
-      <c r="AM38" s="124"/>
+      <c r="AK38" s="124"/>
+      <c r="AL38" s="122"/>
+      <c r="AM38" s="122"/>
     </row>
     <row r="39" spans="1:39">
       <c r="A39" s="9"/>
@@ -4347,31 +4347,31 @@
       <c r="L39" s="48"/>
       <c r="M39" s="48"/>
       <c r="N39" s="108"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="108"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="108"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="108"/>
-      <c r="U39" s="47"/>
-      <c r="V39" s="108"/>
-      <c r="W39" s="47"/>
-      <c r="X39" s="108"/>
-      <c r="Y39" s="47"/>
-      <c r="Z39" s="108"/>
-      <c r="AA39" s="47"/>
-      <c r="AB39" s="108"/>
-      <c r="AC39" s="47"/>
-      <c r="AD39" s="108"/>
-      <c r="AE39" s="47"/>
-      <c r="AF39" s="108"/>
-      <c r="AG39" s="47"/>
-      <c r="AH39" s="108"/>
-      <c r="AI39" s="47"/>
-      <c r="AJ39" s="48"/>
-      <c r="AK39" s="126"/>
-      <c r="AL39" s="124"/>
-      <c r="AM39" s="124"/>
+      <c r="O39" s="104"/>
+      <c r="P39" s="105"/>
+      <c r="Q39" s="104"/>
+      <c r="R39" s="105"/>
+      <c r="S39" s="104"/>
+      <c r="T39" s="105"/>
+      <c r="U39" s="104"/>
+      <c r="V39" s="105"/>
+      <c r="W39" s="104"/>
+      <c r="X39" s="105"/>
+      <c r="Y39" s="104"/>
+      <c r="Z39" s="105"/>
+      <c r="AA39" s="104"/>
+      <c r="AB39" s="105"/>
+      <c r="AC39" s="104"/>
+      <c r="AD39" s="105"/>
+      <c r="AE39" s="104"/>
+      <c r="AF39" s="105"/>
+      <c r="AG39" s="104"/>
+      <c r="AH39" s="105"/>
+      <c r="AI39" s="104"/>
+      <c r="AJ39" s="126"/>
+      <c r="AK39" s="124"/>
+      <c r="AL39" s="122"/>
+      <c r="AM39" s="122"/>
     </row>
     <row r="40" spans="1:39">
       <c r="A40" s="9"/>
@@ -4387,32 +4387,32 @@
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
       <c r="M40" s="32"/>
-      <c r="N40" s="100"/>
-      <c r="O40" s="50"/>
-      <c r="P40" s="100"/>
-      <c r="Q40" s="50"/>
-      <c r="R40" s="100"/>
-      <c r="S40" s="50"/>
-      <c r="T40" s="100"/>
-      <c r="U40" s="50"/>
-      <c r="V40" s="100"/>
-      <c r="W40" s="50"/>
-      <c r="X40" s="100"/>
-      <c r="Y40" s="50"/>
-      <c r="Z40" s="100"/>
-      <c r="AA40" s="50"/>
-      <c r="AB40" s="100"/>
-      <c r="AC40" s="50"/>
-      <c r="AD40" s="100"/>
-      <c r="AE40" s="50"/>
-      <c r="AF40" s="100"/>
-      <c r="AG40" s="50"/>
-      <c r="AH40" s="100"/>
-      <c r="AI40" s="50"/>
-      <c r="AJ40" s="32"/>
-      <c r="AK40" s="126"/>
-      <c r="AL40" s="124"/>
-      <c r="AM40" s="124"/>
+      <c r="N40" s="96"/>
+      <c r="O40" s="74"/>
+      <c r="P40" s="75"/>
+      <c r="Q40" s="74"/>
+      <c r="R40" s="75"/>
+      <c r="S40" s="74"/>
+      <c r="T40" s="75"/>
+      <c r="U40" s="74"/>
+      <c r="V40" s="75"/>
+      <c r="W40" s="74"/>
+      <c r="X40" s="75"/>
+      <c r="Y40" s="74"/>
+      <c r="Z40" s="75"/>
+      <c r="AA40" s="74"/>
+      <c r="AB40" s="75"/>
+      <c r="AC40" s="74"/>
+      <c r="AD40" s="75"/>
+      <c r="AE40" s="74"/>
+      <c r="AF40" s="75"/>
+      <c r="AG40" s="74"/>
+      <c r="AH40" s="75"/>
+      <c r="AI40" s="74"/>
+      <c r="AJ40" s="125"/>
+      <c r="AK40" s="124"/>
+      <c r="AL40" s="122"/>
+      <c r="AM40" s="122"/>
     </row>
     <row r="41" spans="1:39">
       <c r="A41" s="9"/>
@@ -4428,32 +4428,32 @@
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
       <c r="M41" s="32"/>
-      <c r="N41" s="100"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="100"/>
-      <c r="Q41" s="50"/>
-      <c r="R41" s="100"/>
-      <c r="S41" s="50"/>
-      <c r="T41" s="100"/>
-      <c r="U41" s="50"/>
-      <c r="V41" s="100"/>
-      <c r="W41" s="50"/>
-      <c r="X41" s="100"/>
-      <c r="Y41" s="50"/>
-      <c r="Z41" s="100"/>
-      <c r="AA41" s="50"/>
-      <c r="AB41" s="100"/>
-      <c r="AC41" s="50"/>
-      <c r="AD41" s="100"/>
-      <c r="AE41" s="50"/>
-      <c r="AF41" s="100"/>
-      <c r="AG41" s="50"/>
-      <c r="AH41" s="100"/>
-      <c r="AI41" s="50"/>
-      <c r="AJ41" s="32"/>
-      <c r="AK41" s="126"/>
-      <c r="AL41" s="124"/>
-      <c r="AM41" s="124"/>
+      <c r="N41" s="96"/>
+      <c r="O41" s="74"/>
+      <c r="P41" s="75"/>
+      <c r="Q41" s="74"/>
+      <c r="R41" s="75"/>
+      <c r="S41" s="74"/>
+      <c r="T41" s="75"/>
+      <c r="U41" s="74"/>
+      <c r="V41" s="75"/>
+      <c r="W41" s="74"/>
+      <c r="X41" s="75"/>
+      <c r="Y41" s="74"/>
+      <c r="Z41" s="75"/>
+      <c r="AA41" s="74"/>
+      <c r="AB41" s="75"/>
+      <c r="AC41" s="74"/>
+      <c r="AD41" s="75"/>
+      <c r="AE41" s="74"/>
+      <c r="AF41" s="75"/>
+      <c r="AG41" s="74"/>
+      <c r="AH41" s="75"/>
+      <c r="AI41" s="74"/>
+      <c r="AJ41" s="125"/>
+      <c r="AK41" s="124"/>
+      <c r="AL41" s="122"/>
+      <c r="AM41" s="122"/>
     </row>
     <row r="42" spans="1:39">
       <c r="A42" s="9"/>
@@ -4469,32 +4469,32 @@
       <c r="K42" s="32"/>
       <c r="L42" s="32"/>
       <c r="M42" s="32"/>
-      <c r="N42" s="100"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="100"/>
-      <c r="Q42" s="50"/>
-      <c r="R42" s="100"/>
-      <c r="S42" s="50"/>
-      <c r="T42" s="100"/>
-      <c r="U42" s="50"/>
-      <c r="V42" s="100"/>
-      <c r="W42" s="50"/>
-      <c r="X42" s="100"/>
-      <c r="Y42" s="50"/>
-      <c r="Z42" s="100"/>
-      <c r="AA42" s="50"/>
-      <c r="AB42" s="100"/>
-      <c r="AC42" s="50"/>
-      <c r="AD42" s="100"/>
-      <c r="AE42" s="50"/>
-      <c r="AF42" s="100"/>
-      <c r="AG42" s="50"/>
-      <c r="AH42" s="100"/>
-      <c r="AI42" s="50"/>
-      <c r="AJ42" s="32"/>
-      <c r="AK42" s="126"/>
-      <c r="AL42" s="124"/>
-      <c r="AM42" s="124"/>
+      <c r="N42" s="96"/>
+      <c r="O42" s="74"/>
+      <c r="P42" s="75"/>
+      <c r="Q42" s="74"/>
+      <c r="R42" s="75"/>
+      <c r="S42" s="74"/>
+      <c r="T42" s="75"/>
+      <c r="U42" s="74"/>
+      <c r="V42" s="75"/>
+      <c r="W42" s="74"/>
+      <c r="X42" s="75"/>
+      <c r="Y42" s="74"/>
+      <c r="Z42" s="75"/>
+      <c r="AA42" s="74"/>
+      <c r="AB42" s="75"/>
+      <c r="AC42" s="74"/>
+      <c r="AD42" s="75"/>
+      <c r="AE42" s="74"/>
+      <c r="AF42" s="75"/>
+      <c r="AG42" s="74"/>
+      <c r="AH42" s="75"/>
+      <c r="AI42" s="74"/>
+      <c r="AJ42" s="125"/>
+      <c r="AK42" s="124"/>
+      <c r="AL42" s="122"/>
+      <c r="AM42" s="122"/>
     </row>
     <row r="43" spans="1:39">
       <c r="A43" s="9"/>
@@ -4510,32 +4510,32 @@
       <c r="K43" s="32"/>
       <c r="L43" s="32"/>
       <c r="M43" s="32"/>
-      <c r="N43" s="100"/>
-      <c r="O43" s="50"/>
-      <c r="P43" s="100"/>
-      <c r="Q43" s="50"/>
-      <c r="R43" s="100"/>
-      <c r="S43" s="50"/>
-      <c r="T43" s="100"/>
-      <c r="U43" s="50"/>
-      <c r="V43" s="100"/>
-      <c r="W43" s="50"/>
-      <c r="X43" s="100"/>
-      <c r="Y43" s="50"/>
-      <c r="Z43" s="100"/>
-      <c r="AA43" s="50"/>
-      <c r="AB43" s="100"/>
-      <c r="AC43" s="50"/>
-      <c r="AD43" s="100"/>
-      <c r="AE43" s="50"/>
-      <c r="AF43" s="100"/>
-      <c r="AG43" s="50"/>
-      <c r="AH43" s="100"/>
-      <c r="AI43" s="50"/>
-      <c r="AJ43" s="32"/>
-      <c r="AK43" s="126"/>
-      <c r="AL43" s="124"/>
-      <c r="AM43" s="124"/>
+      <c r="N43" s="96"/>
+      <c r="O43" s="74"/>
+      <c r="P43" s="75"/>
+      <c r="Q43" s="74"/>
+      <c r="R43" s="75"/>
+      <c r="S43" s="74"/>
+      <c r="T43" s="75"/>
+      <c r="U43" s="74"/>
+      <c r="V43" s="75"/>
+      <c r="W43" s="74"/>
+      <c r="X43" s="75"/>
+      <c r="Y43" s="74"/>
+      <c r="Z43" s="75"/>
+      <c r="AA43" s="74"/>
+      <c r="AB43" s="75"/>
+      <c r="AC43" s="74"/>
+      <c r="AD43" s="75"/>
+      <c r="AE43" s="74"/>
+      <c r="AF43" s="75"/>
+      <c r="AG43" s="74"/>
+      <c r="AH43" s="75"/>
+      <c r="AI43" s="74"/>
+      <c r="AJ43" s="125"/>
+      <c r="AK43" s="124"/>
+      <c r="AL43" s="122"/>
+      <c r="AM43" s="122"/>
     </row>
     <row r="44" spans="1:39">
       <c r="A44" s="9"/>
@@ -4551,32 +4551,32 @@
       <c r="K44" s="32"/>
       <c r="L44" s="32"/>
       <c r="M44" s="32"/>
-      <c r="N44" s="100"/>
-      <c r="O44" s="50"/>
-      <c r="P44" s="100"/>
-      <c r="Q44" s="50"/>
-      <c r="R44" s="100"/>
-      <c r="S44" s="50"/>
-      <c r="T44" s="100"/>
-      <c r="U44" s="50"/>
-      <c r="V44" s="100"/>
-      <c r="W44" s="50"/>
-      <c r="X44" s="100"/>
-      <c r="Y44" s="50"/>
-      <c r="Z44" s="100"/>
-      <c r="AA44" s="50"/>
-      <c r="AB44" s="100"/>
-      <c r="AC44" s="50"/>
-      <c r="AD44" s="100"/>
-      <c r="AE44" s="50"/>
-      <c r="AF44" s="100"/>
-      <c r="AG44" s="50"/>
-      <c r="AH44" s="100"/>
-      <c r="AI44" s="50"/>
-      <c r="AJ44" s="32"/>
-      <c r="AK44" s="126"/>
-      <c r="AL44" s="124"/>
-      <c r="AM44" s="124"/>
+      <c r="N44" s="96"/>
+      <c r="O44" s="74"/>
+      <c r="P44" s="75"/>
+      <c r="Q44" s="74"/>
+      <c r="R44" s="75"/>
+      <c r="S44" s="74"/>
+      <c r="T44" s="75"/>
+      <c r="U44" s="74"/>
+      <c r="V44" s="75"/>
+      <c r="W44" s="74"/>
+      <c r="X44" s="75"/>
+      <c r="Y44" s="74"/>
+      <c r="Z44" s="75"/>
+      <c r="AA44" s="74"/>
+      <c r="AB44" s="75"/>
+      <c r="AC44" s="74"/>
+      <c r="AD44" s="75"/>
+      <c r="AE44" s="74"/>
+      <c r="AF44" s="75"/>
+      <c r="AG44" s="74"/>
+      <c r="AH44" s="75"/>
+      <c r="AI44" s="74"/>
+      <c r="AJ44" s="125"/>
+      <c r="AK44" s="124"/>
+      <c r="AL44" s="122"/>
+      <c r="AM44" s="122"/>
     </row>
     <row r="45" ht="15.15" spans="1:39">
       <c r="A45" s="9"/>
@@ -4592,32 +4592,32 @@
       <c r="K45" s="37"/>
       <c r="L45" s="37"/>
       <c r="M45" s="37"/>
-      <c r="N45" s="101"/>
-      <c r="O45" s="52"/>
-      <c r="P45" s="101"/>
-      <c r="Q45" s="52"/>
-      <c r="R45" s="101"/>
-      <c r="S45" s="52"/>
-      <c r="T45" s="101"/>
-      <c r="U45" s="52"/>
-      <c r="V45" s="101"/>
-      <c r="W45" s="52"/>
-      <c r="X45" s="101"/>
-      <c r="Y45" s="52"/>
-      <c r="Z45" s="101"/>
-      <c r="AA45" s="52"/>
-      <c r="AB45" s="101"/>
-      <c r="AC45" s="52"/>
-      <c r="AD45" s="101"/>
-      <c r="AE45" s="52"/>
-      <c r="AF45" s="101"/>
-      <c r="AG45" s="52"/>
-      <c r="AH45" s="101"/>
-      <c r="AI45" s="52"/>
-      <c r="AJ45" s="37"/>
-      <c r="AK45" s="126"/>
-      <c r="AL45" s="124"/>
-      <c r="AM45" s="124"/>
+      <c r="N45" s="97"/>
+      <c r="O45" s="98"/>
+      <c r="P45" s="99"/>
+      <c r="Q45" s="98"/>
+      <c r="R45" s="99"/>
+      <c r="S45" s="98"/>
+      <c r="T45" s="99"/>
+      <c r="U45" s="98"/>
+      <c r="V45" s="99"/>
+      <c r="W45" s="98"/>
+      <c r="X45" s="99"/>
+      <c r="Y45" s="98"/>
+      <c r="Z45" s="99"/>
+      <c r="AA45" s="98"/>
+      <c r="AB45" s="99"/>
+      <c r="AC45" s="98"/>
+      <c r="AD45" s="99"/>
+      <c r="AE45" s="98"/>
+      <c r="AF45" s="99"/>
+      <c r="AG45" s="98"/>
+      <c r="AH45" s="99"/>
+      <c r="AI45" s="98"/>
+      <c r="AJ45" s="127"/>
+      <c r="AK45" s="124"/>
+      <c r="AL45" s="122"/>
+      <c r="AM45" s="122"/>
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:39">
       <c r="A46" s="9"/>
@@ -4636,33 +4636,33 @@
       <c r="L46" s="30"/>
       <c r="M46" s="30"/>
       <c r="N46" s="30"/>
-      <c r="O46" s="111" t="s">
+      <c r="O46" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="P46" s="112"/>
-      <c r="Q46" s="112"/>
-      <c r="R46" s="112"/>
-      <c r="S46" s="112"/>
-      <c r="T46" s="112"/>
-      <c r="U46" s="112"/>
-      <c r="V46" s="112"/>
-      <c r="W46" s="112"/>
-      <c r="X46" s="112"/>
-      <c r="Y46" s="112"/>
-      <c r="Z46" s="112"/>
-      <c r="AA46" s="112"/>
-      <c r="AB46" s="112"/>
-      <c r="AC46" s="112"/>
-      <c r="AD46" s="112"/>
-      <c r="AE46" s="112"/>
-      <c r="AF46" s="112"/>
-      <c r="AG46" s="112"/>
-      <c r="AH46" s="112"/>
-      <c r="AI46" s="112"/>
+      <c r="P46" s="110"/>
+      <c r="Q46" s="110"/>
+      <c r="R46" s="110"/>
+      <c r="S46" s="110"/>
+      <c r="T46" s="110"/>
+      <c r="U46" s="110"/>
+      <c r="V46" s="110"/>
+      <c r="W46" s="110"/>
+      <c r="X46" s="110"/>
+      <c r="Y46" s="110"/>
+      <c r="Z46" s="110"/>
+      <c r="AA46" s="110"/>
+      <c r="AB46" s="110"/>
+      <c r="AC46" s="110"/>
+      <c r="AD46" s="110"/>
+      <c r="AE46" s="110"/>
+      <c r="AF46" s="110"/>
+      <c r="AG46" s="110"/>
+      <c r="AH46" s="110"/>
+      <c r="AI46" s="110"/>
       <c r="AJ46" s="128"/>
-      <c r="AK46" s="126"/>
-      <c r="AL46" s="124"/>
-      <c r="AM46" s="124"/>
+      <c r="AK46" s="124"/>
+      <c r="AL46" s="122"/>
+      <c r="AM46" s="122"/>
     </row>
     <row r="47" ht="15" customHeight="1" spans="1:39">
       <c r="A47" s="9"/>
@@ -4681,35 +4681,35 @@
       <c r="L47" s="54"/>
       <c r="M47" s="54"/>
       <c r="N47" s="54"/>
-      <c r="O47" s="113" t="s">
+      <c r="O47" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="P47" s="114"/>
-      <c r="Q47" s="114"/>
-      <c r="R47" s="114"/>
-      <c r="S47" s="114"/>
-      <c r="T47" s="114"/>
-      <c r="U47" s="114"/>
-      <c r="V47" s="114"/>
-      <c r="W47" s="114"/>
-      <c r="X47" s="114"/>
-      <c r="Y47" s="114"/>
-      <c r="Z47" s="114"/>
-      <c r="AA47" s="120" t="s">
+      <c r="P47" s="112"/>
+      <c r="Q47" s="112"/>
+      <c r="R47" s="112"/>
+      <c r="S47" s="112"/>
+      <c r="T47" s="112"/>
+      <c r="U47" s="112"/>
+      <c r="V47" s="112"/>
+      <c r="W47" s="112"/>
+      <c r="X47" s="112"/>
+      <c r="Y47" s="112"/>
+      <c r="Z47" s="112"/>
+      <c r="AA47" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="AB47" s="121"/>
-      <c r="AC47" s="121"/>
-      <c r="AD47" s="121"/>
-      <c r="AE47" s="121"/>
-      <c r="AF47" s="121"/>
-      <c r="AG47" s="121"/>
-      <c r="AH47" s="121"/>
-      <c r="AI47" s="121"/>
+      <c r="AB47" s="119"/>
+      <c r="AC47" s="119"/>
+      <c r="AD47" s="119"/>
+      <c r="AE47" s="119"/>
+      <c r="AF47" s="119"/>
+      <c r="AG47" s="119"/>
+      <c r="AH47" s="119"/>
+      <c r="AI47" s="119"/>
       <c r="AJ47" s="129"/>
       <c r="AK47" s="130"/>
-      <c r="AL47" s="124"/>
-      <c r="AM47" s="124"/>
+      <c r="AL47" s="122"/>
+      <c r="AM47" s="122"/>
     </row>
     <row r="48" spans="1:39">
       <c r="A48" s="9"/>
@@ -4726,31 +4726,31 @@
       <c r="L48" s="56"/>
       <c r="M48" s="56"/>
       <c r="N48" s="56"/>
-      <c r="O48" s="115"/>
-      <c r="P48" s="116"/>
-      <c r="Q48" s="116"/>
-      <c r="R48" s="116"/>
-      <c r="S48" s="116"/>
-      <c r="T48" s="116"/>
-      <c r="U48" s="116"/>
-      <c r="V48" s="116"/>
-      <c r="W48" s="116"/>
-      <c r="X48" s="116"/>
-      <c r="Y48" s="116"/>
-      <c r="Z48" s="116"/>
-      <c r="AA48" s="122"/>
-      <c r="AB48" s="122"/>
-      <c r="AC48" s="122"/>
-      <c r="AD48" s="122"/>
-      <c r="AE48" s="122"/>
-      <c r="AF48" s="122"/>
-      <c r="AG48" s="122"/>
-      <c r="AH48" s="122"/>
-      <c r="AI48" s="122"/>
+      <c r="O48" s="113"/>
+      <c r="P48" s="114"/>
+      <c r="Q48" s="114"/>
+      <c r="R48" s="114"/>
+      <c r="S48" s="114"/>
+      <c r="T48" s="114"/>
+      <c r="U48" s="114"/>
+      <c r="V48" s="114"/>
+      <c r="W48" s="114"/>
+      <c r="X48" s="114"/>
+      <c r="Y48" s="114"/>
+      <c r="Z48" s="114"/>
+      <c r="AA48" s="120"/>
+      <c r="AB48" s="120"/>
+      <c r="AC48" s="120"/>
+      <c r="AD48" s="120"/>
+      <c r="AE48" s="120"/>
+      <c r="AF48" s="120"/>
+      <c r="AG48" s="120"/>
+      <c r="AH48" s="120"/>
+      <c r="AI48" s="120"/>
       <c r="AJ48" s="131"/>
       <c r="AK48" s="130"/>
-      <c r="AL48" s="124"/>
-      <c r="AM48" s="124"/>
+      <c r="AL48" s="122"/>
+      <c r="AM48" s="122"/>
     </row>
     <row r="49" spans="1:39">
       <c r="A49" s="9"/>
@@ -4767,31 +4767,31 @@
       <c r="L49" s="56"/>
       <c r="M49" s="56"/>
       <c r="N49" s="56"/>
-      <c r="O49" s="115"/>
-      <c r="P49" s="116"/>
-      <c r="Q49" s="116"/>
-      <c r="R49" s="116"/>
-      <c r="S49" s="116"/>
-      <c r="T49" s="116"/>
-      <c r="U49" s="116"/>
-      <c r="V49" s="116"/>
-      <c r="W49" s="116"/>
-      <c r="X49" s="116"/>
-      <c r="Y49" s="116"/>
-      <c r="Z49" s="116"/>
-      <c r="AA49" s="122"/>
-      <c r="AB49" s="122"/>
-      <c r="AC49" s="122"/>
-      <c r="AD49" s="122"/>
-      <c r="AE49" s="122"/>
-      <c r="AF49" s="122"/>
-      <c r="AG49" s="122"/>
-      <c r="AH49" s="122"/>
-      <c r="AI49" s="122"/>
+      <c r="O49" s="113"/>
+      <c r="P49" s="114"/>
+      <c r="Q49" s="114"/>
+      <c r="R49" s="114"/>
+      <c r="S49" s="114"/>
+      <c r="T49" s="114"/>
+      <c r="U49" s="114"/>
+      <c r="V49" s="114"/>
+      <c r="W49" s="114"/>
+      <c r="X49" s="114"/>
+      <c r="Y49" s="114"/>
+      <c r="Z49" s="114"/>
+      <c r="AA49" s="120"/>
+      <c r="AB49" s="120"/>
+      <c r="AC49" s="120"/>
+      <c r="AD49" s="120"/>
+      <c r="AE49" s="120"/>
+      <c r="AF49" s="120"/>
+      <c r="AG49" s="120"/>
+      <c r="AH49" s="120"/>
+      <c r="AI49" s="120"/>
       <c r="AJ49" s="131"/>
       <c r="AK49" s="130"/>
-      <c r="AL49" s="124"/>
-      <c r="AM49" s="124"/>
+      <c r="AL49" s="122"/>
+      <c r="AM49" s="122"/>
     </row>
     <row r="50" spans="1:39">
       <c r="A50" s="9"/>
@@ -4808,31 +4808,31 @@
       <c r="L50" s="56"/>
       <c r="M50" s="56"/>
       <c r="N50" s="56"/>
-      <c r="O50" s="115"/>
-      <c r="P50" s="116"/>
-      <c r="Q50" s="116"/>
-      <c r="R50" s="116"/>
-      <c r="S50" s="116"/>
-      <c r="T50" s="116"/>
-      <c r="U50" s="116"/>
-      <c r="V50" s="116"/>
-      <c r="W50" s="116"/>
-      <c r="X50" s="116"/>
-      <c r="Y50" s="116"/>
-      <c r="Z50" s="116"/>
-      <c r="AA50" s="122"/>
-      <c r="AB50" s="122"/>
-      <c r="AC50" s="122"/>
-      <c r="AD50" s="122"/>
-      <c r="AE50" s="122"/>
-      <c r="AF50" s="122"/>
-      <c r="AG50" s="122"/>
-      <c r="AH50" s="122"/>
-      <c r="AI50" s="122"/>
+      <c r="O50" s="113"/>
+      <c r="P50" s="114"/>
+      <c r="Q50" s="114"/>
+      <c r="R50" s="114"/>
+      <c r="S50" s="114"/>
+      <c r="T50" s="114"/>
+      <c r="U50" s="114"/>
+      <c r="V50" s="114"/>
+      <c r="W50" s="114"/>
+      <c r="X50" s="114"/>
+      <c r="Y50" s="114"/>
+      <c r="Z50" s="114"/>
+      <c r="AA50" s="120"/>
+      <c r="AB50" s="120"/>
+      <c r="AC50" s="120"/>
+      <c r="AD50" s="120"/>
+      <c r="AE50" s="120"/>
+      <c r="AF50" s="120"/>
+      <c r="AG50" s="120"/>
+      <c r="AH50" s="120"/>
+      <c r="AI50" s="120"/>
       <c r="AJ50" s="131"/>
       <c r="AK50" s="130"/>
-      <c r="AL50" s="124"/>
-      <c r="AM50" s="124"/>
+      <c r="AL50" s="122"/>
+      <c r="AM50" s="122"/>
     </row>
     <row r="51" spans="1:39">
       <c r="A51" s="9"/>
@@ -4849,31 +4849,31 @@
       <c r="L51" s="56"/>
       <c r="M51" s="56"/>
       <c r="N51" s="56"/>
-      <c r="O51" s="115"/>
-      <c r="P51" s="116"/>
-      <c r="Q51" s="116"/>
-      <c r="R51" s="116"/>
-      <c r="S51" s="116"/>
-      <c r="T51" s="116"/>
-      <c r="U51" s="116"/>
-      <c r="V51" s="116"/>
-      <c r="W51" s="116"/>
-      <c r="X51" s="116"/>
-      <c r="Y51" s="116"/>
-      <c r="Z51" s="116"/>
-      <c r="AA51" s="122"/>
-      <c r="AB51" s="122"/>
-      <c r="AC51" s="122"/>
-      <c r="AD51" s="122"/>
-      <c r="AE51" s="122"/>
-      <c r="AF51" s="122"/>
-      <c r="AG51" s="122"/>
-      <c r="AH51" s="122"/>
-      <c r="AI51" s="122"/>
+      <c r="O51" s="113"/>
+      <c r="P51" s="114"/>
+      <c r="Q51" s="114"/>
+      <c r="R51" s="114"/>
+      <c r="S51" s="114"/>
+      <c r="T51" s="114"/>
+      <c r="U51" s="114"/>
+      <c r="V51" s="114"/>
+      <c r="W51" s="114"/>
+      <c r="X51" s="114"/>
+      <c r="Y51" s="114"/>
+      <c r="Z51" s="114"/>
+      <c r="AA51" s="120"/>
+      <c r="AB51" s="120"/>
+      <c r="AC51" s="120"/>
+      <c r="AD51" s="120"/>
+      <c r="AE51" s="120"/>
+      <c r="AF51" s="120"/>
+      <c r="AG51" s="120"/>
+      <c r="AH51" s="120"/>
+      <c r="AI51" s="120"/>
       <c r="AJ51" s="131"/>
       <c r="AK51" s="130"/>
-      <c r="AL51" s="124"/>
-      <c r="AM51" s="124"/>
+      <c r="AL51" s="122"/>
+      <c r="AM51" s="122"/>
     </row>
     <row r="52" spans="1:39">
       <c r="A52" s="9"/>
@@ -4890,31 +4890,31 @@
       <c r="L52" s="58"/>
       <c r="M52" s="58"/>
       <c r="N52" s="58"/>
-      <c r="O52" s="115"/>
-      <c r="P52" s="116"/>
-      <c r="Q52" s="116"/>
-      <c r="R52" s="116"/>
-      <c r="S52" s="116"/>
-      <c r="T52" s="116"/>
-      <c r="U52" s="116"/>
-      <c r="V52" s="116"/>
-      <c r="W52" s="116"/>
-      <c r="X52" s="116"/>
-      <c r="Y52" s="116"/>
-      <c r="Z52" s="116"/>
-      <c r="AA52" s="122"/>
-      <c r="AB52" s="122"/>
-      <c r="AC52" s="122"/>
-      <c r="AD52" s="122"/>
-      <c r="AE52" s="122"/>
-      <c r="AF52" s="122"/>
-      <c r="AG52" s="122"/>
-      <c r="AH52" s="122"/>
-      <c r="AI52" s="122"/>
+      <c r="O52" s="113"/>
+      <c r="P52" s="114"/>
+      <c r="Q52" s="114"/>
+      <c r="R52" s="114"/>
+      <c r="S52" s="114"/>
+      <c r="T52" s="114"/>
+      <c r="U52" s="114"/>
+      <c r="V52" s="114"/>
+      <c r="W52" s="114"/>
+      <c r="X52" s="114"/>
+      <c r="Y52" s="114"/>
+      <c r="Z52" s="114"/>
+      <c r="AA52" s="120"/>
+      <c r="AB52" s="120"/>
+      <c r="AC52" s="120"/>
+      <c r="AD52" s="120"/>
+      <c r="AE52" s="120"/>
+      <c r="AF52" s="120"/>
+      <c r="AG52" s="120"/>
+      <c r="AH52" s="120"/>
+      <c r="AI52" s="120"/>
       <c r="AJ52" s="131"/>
       <c r="AK52" s="130"/>
-      <c r="AL52" s="124"/>
-      <c r="AM52" s="124"/>
+      <c r="AL52" s="122"/>
+      <c r="AM52" s="122"/>
     </row>
     <row r="53" spans="1:39">
       <c r="A53" s="9"/>
@@ -4933,31 +4933,31 @@
       <c r="L53" s="60"/>
       <c r="M53" s="60"/>
       <c r="N53" s="60"/>
-      <c r="O53" s="115"/>
-      <c r="P53" s="116"/>
-      <c r="Q53" s="116"/>
-      <c r="R53" s="116"/>
-      <c r="S53" s="116"/>
-      <c r="T53" s="116"/>
-      <c r="U53" s="116"/>
-      <c r="V53" s="116"/>
-      <c r="W53" s="116"/>
-      <c r="X53" s="116"/>
-      <c r="Y53" s="116"/>
-      <c r="Z53" s="116"/>
-      <c r="AA53" s="122"/>
-      <c r="AB53" s="122"/>
-      <c r="AC53" s="122"/>
-      <c r="AD53" s="122"/>
-      <c r="AE53" s="122"/>
-      <c r="AF53" s="122"/>
-      <c r="AG53" s="122"/>
-      <c r="AH53" s="122"/>
-      <c r="AI53" s="122"/>
+      <c r="O53" s="113"/>
+      <c r="P53" s="114"/>
+      <c r="Q53" s="114"/>
+      <c r="R53" s="114"/>
+      <c r="S53" s="114"/>
+      <c r="T53" s="114"/>
+      <c r="U53" s="114"/>
+      <c r="V53" s="114"/>
+      <c r="W53" s="114"/>
+      <c r="X53" s="114"/>
+      <c r="Y53" s="114"/>
+      <c r="Z53" s="114"/>
+      <c r="AA53" s="120"/>
+      <c r="AB53" s="120"/>
+      <c r="AC53" s="120"/>
+      <c r="AD53" s="120"/>
+      <c r="AE53" s="120"/>
+      <c r="AF53" s="120"/>
+      <c r="AG53" s="120"/>
+      <c r="AH53" s="120"/>
+      <c r="AI53" s="120"/>
       <c r="AJ53" s="131"/>
       <c r="AK53" s="130"/>
-      <c r="AL53" s="124"/>
-      <c r="AM53" s="124"/>
+      <c r="AL53" s="122"/>
+      <c r="AM53" s="122"/>
     </row>
     <row r="54" ht="15" customHeight="1" spans="1:39">
       <c r="A54" s="9"/>
@@ -4976,31 +4976,31 @@
       <c r="L54" s="62"/>
       <c r="M54" s="62"/>
       <c r="N54" s="62"/>
-      <c r="O54" s="115"/>
-      <c r="P54" s="116"/>
-      <c r="Q54" s="116"/>
-      <c r="R54" s="116"/>
-      <c r="S54" s="116"/>
-      <c r="T54" s="116"/>
-      <c r="U54" s="116"/>
-      <c r="V54" s="116"/>
-      <c r="W54" s="116"/>
-      <c r="X54" s="116"/>
-      <c r="Y54" s="116"/>
-      <c r="Z54" s="116"/>
-      <c r="AA54" s="122"/>
-      <c r="AB54" s="122"/>
-      <c r="AC54" s="122"/>
-      <c r="AD54" s="122"/>
-      <c r="AE54" s="122"/>
-      <c r="AF54" s="122"/>
-      <c r="AG54" s="122"/>
-      <c r="AH54" s="122"/>
-      <c r="AI54" s="122"/>
+      <c r="O54" s="113"/>
+      <c r="P54" s="114"/>
+      <c r="Q54" s="114"/>
+      <c r="R54" s="114"/>
+      <c r="S54" s="114"/>
+      <c r="T54" s="114"/>
+      <c r="U54" s="114"/>
+      <c r="V54" s="114"/>
+      <c r="W54" s="114"/>
+      <c r="X54" s="114"/>
+      <c r="Y54" s="114"/>
+      <c r="Z54" s="114"/>
+      <c r="AA54" s="120"/>
+      <c r="AB54" s="120"/>
+      <c r="AC54" s="120"/>
+      <c r="AD54" s="120"/>
+      <c r="AE54" s="120"/>
+      <c r="AF54" s="120"/>
+      <c r="AG54" s="120"/>
+      <c r="AH54" s="120"/>
+      <c r="AI54" s="120"/>
       <c r="AJ54" s="131"/>
       <c r="AK54" s="130"/>
-      <c r="AL54" s="124"/>
-      <c r="AM54" s="124"/>
+      <c r="AL54" s="122"/>
+      <c r="AM54" s="122"/>
     </row>
     <row r="55" spans="1:39">
       <c r="A55" s="9"/>
@@ -5017,31 +5017,31 @@
       <c r="L55" s="62"/>
       <c r="M55" s="62"/>
       <c r="N55" s="62"/>
-      <c r="O55" s="115"/>
-      <c r="P55" s="116"/>
-      <c r="Q55" s="116"/>
-      <c r="R55" s="116"/>
-      <c r="S55" s="116"/>
-      <c r="T55" s="116"/>
-      <c r="U55" s="116"/>
-      <c r="V55" s="116"/>
-      <c r="W55" s="116"/>
-      <c r="X55" s="116"/>
-      <c r="Y55" s="116"/>
-      <c r="Z55" s="116"/>
-      <c r="AA55" s="122"/>
-      <c r="AB55" s="122"/>
-      <c r="AC55" s="122"/>
-      <c r="AD55" s="122"/>
-      <c r="AE55" s="122"/>
-      <c r="AF55" s="122"/>
-      <c r="AG55" s="122"/>
-      <c r="AH55" s="122"/>
-      <c r="AI55" s="122"/>
+      <c r="O55" s="113"/>
+      <c r="P55" s="114"/>
+      <c r="Q55" s="114"/>
+      <c r="R55" s="114"/>
+      <c r="S55" s="114"/>
+      <c r="T55" s="114"/>
+      <c r="U55" s="114"/>
+      <c r="V55" s="114"/>
+      <c r="W55" s="114"/>
+      <c r="X55" s="114"/>
+      <c r="Y55" s="114"/>
+      <c r="Z55" s="114"/>
+      <c r="AA55" s="120"/>
+      <c r="AB55" s="120"/>
+      <c r="AC55" s="120"/>
+      <c r="AD55" s="120"/>
+      <c r="AE55" s="120"/>
+      <c r="AF55" s="120"/>
+      <c r="AG55" s="120"/>
+      <c r="AH55" s="120"/>
+      <c r="AI55" s="120"/>
       <c r="AJ55" s="131"/>
       <c r="AK55" s="130"/>
-      <c r="AL55" s="124"/>
-      <c r="AM55" s="124"/>
+      <c r="AL55" s="122"/>
+      <c r="AM55" s="122"/>
     </row>
     <row r="56" ht="15" customHeight="1" spans="1:39">
       <c r="A56" s="9"/>
@@ -5058,31 +5058,31 @@
       <c r="L56" s="62"/>
       <c r="M56" s="62"/>
       <c r="N56" s="62"/>
-      <c r="O56" s="115"/>
-      <c r="P56" s="116"/>
-      <c r="Q56" s="116"/>
-      <c r="R56" s="116"/>
-      <c r="S56" s="116"/>
-      <c r="T56" s="116"/>
-      <c r="U56" s="116"/>
-      <c r="V56" s="116"/>
-      <c r="W56" s="116"/>
-      <c r="X56" s="116"/>
-      <c r="Y56" s="116"/>
-      <c r="Z56" s="116"/>
-      <c r="AA56" s="122"/>
-      <c r="AB56" s="122"/>
-      <c r="AC56" s="122"/>
-      <c r="AD56" s="122"/>
-      <c r="AE56" s="122"/>
-      <c r="AF56" s="122"/>
-      <c r="AG56" s="122"/>
-      <c r="AH56" s="122"/>
-      <c r="AI56" s="122"/>
+      <c r="O56" s="113"/>
+      <c r="P56" s="114"/>
+      <c r="Q56" s="114"/>
+      <c r="R56" s="114"/>
+      <c r="S56" s="114"/>
+      <c r="T56" s="114"/>
+      <c r="U56" s="114"/>
+      <c r="V56" s="114"/>
+      <c r="W56" s="114"/>
+      <c r="X56" s="114"/>
+      <c r="Y56" s="114"/>
+      <c r="Z56" s="114"/>
+      <c r="AA56" s="120"/>
+      <c r="AB56" s="120"/>
+      <c r="AC56" s="120"/>
+      <c r="AD56" s="120"/>
+      <c r="AE56" s="120"/>
+      <c r="AF56" s="120"/>
+      <c r="AG56" s="120"/>
+      <c r="AH56" s="120"/>
+      <c r="AI56" s="120"/>
       <c r="AJ56" s="131"/>
       <c r="AK56" s="130"/>
-      <c r="AL56" s="124"/>
-      <c r="AM56" s="124"/>
+      <c r="AL56" s="122"/>
+      <c r="AM56" s="122"/>
     </row>
     <row r="57" ht="15" customHeight="1" spans="1:39">
       <c r="A57" s="9"/>
@@ -5099,33 +5099,33 @@
       <c r="L57" s="62"/>
       <c r="M57" s="62"/>
       <c r="N57" s="62"/>
-      <c r="O57" s="117" t="s">
+      <c r="O57" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="P57" s="118"/>
-      <c r="Q57" s="118"/>
-      <c r="R57" s="118"/>
-      <c r="S57" s="118"/>
-      <c r="T57" s="118"/>
-      <c r="U57" s="118"/>
-      <c r="V57" s="118"/>
-      <c r="W57" s="118"/>
-      <c r="X57" s="118"/>
-      <c r="Y57" s="118"/>
-      <c r="Z57" s="118"/>
-      <c r="AA57" s="122"/>
-      <c r="AB57" s="122"/>
-      <c r="AC57" s="122"/>
-      <c r="AD57" s="122"/>
-      <c r="AE57" s="122"/>
-      <c r="AF57" s="122"/>
-      <c r="AG57" s="122"/>
-      <c r="AH57" s="122"/>
-      <c r="AI57" s="122"/>
+      <c r="P57" s="116"/>
+      <c r="Q57" s="116"/>
+      <c r="R57" s="116"/>
+      <c r="S57" s="116"/>
+      <c r="T57" s="116"/>
+      <c r="U57" s="116"/>
+      <c r="V57" s="116"/>
+      <c r="W57" s="116"/>
+      <c r="X57" s="116"/>
+      <c r="Y57" s="116"/>
+      <c r="Z57" s="116"/>
+      <c r="AA57" s="120"/>
+      <c r="AB57" s="120"/>
+      <c r="AC57" s="120"/>
+      <c r="AD57" s="120"/>
+      <c r="AE57" s="120"/>
+      <c r="AF57" s="120"/>
+      <c r="AG57" s="120"/>
+      <c r="AH57" s="120"/>
+      <c r="AI57" s="120"/>
       <c r="AJ57" s="131"/>
       <c r="AK57" s="130"/>
-      <c r="AL57" s="124"/>
-      <c r="AM57" s="124"/>
+      <c r="AL57" s="122"/>
+      <c r="AM57" s="122"/>
     </row>
     <row r="58" ht="15" customHeight="1" spans="1:39">
       <c r="A58" s="9"/>
@@ -5142,31 +5142,31 @@
       <c r="L58" s="62"/>
       <c r="M58" s="62"/>
       <c r="N58" s="62"/>
-      <c r="O58" s="117"/>
-      <c r="P58" s="118"/>
-      <c r="Q58" s="118"/>
-      <c r="R58" s="118"/>
-      <c r="S58" s="118"/>
-      <c r="T58" s="118"/>
-      <c r="U58" s="118"/>
-      <c r="V58" s="118"/>
-      <c r="W58" s="118"/>
-      <c r="X58" s="118"/>
-      <c r="Y58" s="118"/>
-      <c r="Z58" s="118"/>
-      <c r="AA58" s="122"/>
-      <c r="AB58" s="122"/>
-      <c r="AC58" s="122"/>
-      <c r="AD58" s="122"/>
-      <c r="AE58" s="122"/>
-      <c r="AF58" s="122"/>
-      <c r="AG58" s="122"/>
-      <c r="AH58" s="122"/>
-      <c r="AI58" s="122"/>
+      <c r="O58" s="115"/>
+      <c r="P58" s="116"/>
+      <c r="Q58" s="116"/>
+      <c r="R58" s="116"/>
+      <c r="S58" s="116"/>
+      <c r="T58" s="116"/>
+      <c r="U58" s="116"/>
+      <c r="V58" s="116"/>
+      <c r="W58" s="116"/>
+      <c r="X58" s="116"/>
+      <c r="Y58" s="116"/>
+      <c r="Z58" s="116"/>
+      <c r="AA58" s="120"/>
+      <c r="AB58" s="120"/>
+      <c r="AC58" s="120"/>
+      <c r="AD58" s="120"/>
+      <c r="AE58" s="120"/>
+      <c r="AF58" s="120"/>
+      <c r="AG58" s="120"/>
+      <c r="AH58" s="120"/>
+      <c r="AI58" s="120"/>
       <c r="AJ58" s="131"/>
       <c r="AK58" s="130"/>
-      <c r="AL58" s="124"/>
-      <c r="AM58" s="124"/>
+      <c r="AL58" s="122"/>
+      <c r="AM58" s="122"/>
     </row>
     <row r="59" spans="1:39">
       <c r="A59" s="9"/>
@@ -5183,31 +5183,31 @@
       <c r="L59" s="62"/>
       <c r="M59" s="62"/>
       <c r="N59" s="62"/>
-      <c r="O59" s="117"/>
-      <c r="P59" s="118"/>
-      <c r="Q59" s="118"/>
-      <c r="R59" s="118"/>
-      <c r="S59" s="118"/>
-      <c r="T59" s="118"/>
-      <c r="U59" s="118"/>
-      <c r="V59" s="118"/>
-      <c r="W59" s="118"/>
-      <c r="X59" s="118"/>
-      <c r="Y59" s="118"/>
-      <c r="Z59" s="118"/>
-      <c r="AA59" s="122"/>
-      <c r="AB59" s="122"/>
-      <c r="AC59" s="122"/>
-      <c r="AD59" s="122"/>
-      <c r="AE59" s="122"/>
-      <c r="AF59" s="122"/>
-      <c r="AG59" s="122"/>
-      <c r="AH59" s="122"/>
-      <c r="AI59" s="122"/>
+      <c r="O59" s="115"/>
+      <c r="P59" s="116"/>
+      <c r="Q59" s="116"/>
+      <c r="R59" s="116"/>
+      <c r="S59" s="116"/>
+      <c r="T59" s="116"/>
+      <c r="U59" s="116"/>
+      <c r="V59" s="116"/>
+      <c r="W59" s="116"/>
+      <c r="X59" s="116"/>
+      <c r="Y59" s="116"/>
+      <c r="Z59" s="116"/>
+      <c r="AA59" s="120"/>
+      <c r="AB59" s="120"/>
+      <c r="AC59" s="120"/>
+      <c r="AD59" s="120"/>
+      <c r="AE59" s="120"/>
+      <c r="AF59" s="120"/>
+      <c r="AG59" s="120"/>
+      <c r="AH59" s="120"/>
+      <c r="AI59" s="120"/>
       <c r="AJ59" s="131"/>
       <c r="AK59" s="130"/>
-      <c r="AL59" s="124"/>
-      <c r="AM59" s="124"/>
+      <c r="AL59" s="122"/>
+      <c r="AM59" s="122"/>
     </row>
     <row r="60" spans="1:39">
       <c r="A60" s="9"/>
@@ -5224,31 +5224,31 @@
       <c r="L60" s="62"/>
       <c r="M60" s="62"/>
       <c r="N60" s="62"/>
-      <c r="O60" s="117"/>
-      <c r="P60" s="118"/>
-      <c r="Q60" s="118"/>
-      <c r="R60" s="118"/>
-      <c r="S60" s="118"/>
-      <c r="T60" s="118"/>
-      <c r="U60" s="118"/>
-      <c r="V60" s="118"/>
-      <c r="W60" s="118"/>
-      <c r="X60" s="118"/>
-      <c r="Y60" s="118"/>
-      <c r="Z60" s="118"/>
-      <c r="AA60" s="122"/>
-      <c r="AB60" s="122"/>
-      <c r="AC60" s="122"/>
-      <c r="AD60" s="122"/>
-      <c r="AE60" s="122"/>
-      <c r="AF60" s="122"/>
-      <c r="AG60" s="122"/>
-      <c r="AH60" s="122"/>
-      <c r="AI60" s="122"/>
+      <c r="O60" s="115"/>
+      <c r="P60" s="116"/>
+      <c r="Q60" s="116"/>
+      <c r="R60" s="116"/>
+      <c r="S60" s="116"/>
+      <c r="T60" s="116"/>
+      <c r="U60" s="116"/>
+      <c r="V60" s="116"/>
+      <c r="W60" s="116"/>
+      <c r="X60" s="116"/>
+      <c r="Y60" s="116"/>
+      <c r="Z60" s="116"/>
+      <c r="AA60" s="120"/>
+      <c r="AB60" s="120"/>
+      <c r="AC60" s="120"/>
+      <c r="AD60" s="120"/>
+      <c r="AE60" s="120"/>
+      <c r="AF60" s="120"/>
+      <c r="AG60" s="120"/>
+      <c r="AH60" s="120"/>
+      <c r="AI60" s="120"/>
       <c r="AJ60" s="131"/>
       <c r="AK60" s="130"/>
-      <c r="AL60" s="124"/>
-      <c r="AM60" s="124"/>
+      <c r="AL60" s="122"/>
+      <c r="AM60" s="122"/>
     </row>
     <row r="61" spans="1:39">
       <c r="A61" s="9"/>
@@ -5265,31 +5265,31 @@
       <c r="L61" s="62"/>
       <c r="M61" s="62"/>
       <c r="N61" s="62"/>
-      <c r="O61" s="117"/>
-      <c r="P61" s="118"/>
-      <c r="Q61" s="118"/>
-      <c r="R61" s="118"/>
-      <c r="S61" s="118"/>
-      <c r="T61" s="118"/>
-      <c r="U61" s="118"/>
-      <c r="V61" s="118"/>
-      <c r="W61" s="118"/>
-      <c r="X61" s="118"/>
-      <c r="Y61" s="118"/>
-      <c r="Z61" s="118"/>
-      <c r="AA61" s="122"/>
-      <c r="AB61" s="122"/>
-      <c r="AC61" s="122"/>
-      <c r="AD61" s="122"/>
-      <c r="AE61" s="122"/>
-      <c r="AF61" s="122"/>
-      <c r="AG61" s="122"/>
-      <c r="AH61" s="122"/>
-      <c r="AI61" s="122"/>
+      <c r="O61" s="115"/>
+      <c r="P61" s="116"/>
+      <c r="Q61" s="116"/>
+      <c r="R61" s="116"/>
+      <c r="S61" s="116"/>
+      <c r="T61" s="116"/>
+      <c r="U61" s="116"/>
+      <c r="V61" s="116"/>
+      <c r="W61" s="116"/>
+      <c r="X61" s="116"/>
+      <c r="Y61" s="116"/>
+      <c r="Z61" s="116"/>
+      <c r="AA61" s="120"/>
+      <c r="AB61" s="120"/>
+      <c r="AC61" s="120"/>
+      <c r="AD61" s="120"/>
+      <c r="AE61" s="120"/>
+      <c r="AF61" s="120"/>
+      <c r="AG61" s="120"/>
+      <c r="AH61" s="120"/>
+      <c r="AI61" s="120"/>
       <c r="AJ61" s="131"/>
       <c r="AK61" s="130"/>
-      <c r="AL61" s="124"/>
-      <c r="AM61" s="124"/>
+      <c r="AL61" s="122"/>
+      <c r="AM61" s="122"/>
     </row>
     <row r="62" spans="1:39">
       <c r="A62" s="9"/>
@@ -5306,31 +5306,31 @@
       <c r="L62" s="62"/>
       <c r="M62" s="62"/>
       <c r="N62" s="62"/>
-      <c r="O62" s="117"/>
-      <c r="P62" s="118"/>
-      <c r="Q62" s="118"/>
-      <c r="R62" s="118"/>
-      <c r="S62" s="118"/>
-      <c r="T62" s="118"/>
-      <c r="U62" s="118"/>
-      <c r="V62" s="118"/>
-      <c r="W62" s="118"/>
-      <c r="X62" s="118"/>
-      <c r="Y62" s="118"/>
-      <c r="Z62" s="118"/>
-      <c r="AA62" s="122"/>
-      <c r="AB62" s="122"/>
-      <c r="AC62" s="122"/>
-      <c r="AD62" s="122"/>
-      <c r="AE62" s="122"/>
-      <c r="AF62" s="122"/>
-      <c r="AG62" s="122"/>
-      <c r="AH62" s="122"/>
-      <c r="AI62" s="122"/>
+      <c r="O62" s="115"/>
+      <c r="P62" s="116"/>
+      <c r="Q62" s="116"/>
+      <c r="R62" s="116"/>
+      <c r="S62" s="116"/>
+      <c r="T62" s="116"/>
+      <c r="U62" s="116"/>
+      <c r="V62" s="116"/>
+      <c r="W62" s="116"/>
+      <c r="X62" s="116"/>
+      <c r="Y62" s="116"/>
+      <c r="Z62" s="116"/>
+      <c r="AA62" s="120"/>
+      <c r="AB62" s="120"/>
+      <c r="AC62" s="120"/>
+      <c r="AD62" s="120"/>
+      <c r="AE62" s="120"/>
+      <c r="AF62" s="120"/>
+      <c r="AG62" s="120"/>
+      <c r="AH62" s="120"/>
+      <c r="AI62" s="120"/>
       <c r="AJ62" s="131"/>
       <c r="AK62" s="130"/>
-      <c r="AL62" s="124"/>
-      <c r="AM62" s="124"/>
+      <c r="AL62" s="122"/>
+      <c r="AM62" s="122"/>
     </row>
     <row r="63" spans="1:39">
       <c r="A63" s="9"/>
@@ -5347,31 +5347,31 @@
       <c r="L63" s="62"/>
       <c r="M63" s="62"/>
       <c r="N63" s="62"/>
-      <c r="O63" s="117"/>
-      <c r="P63" s="118"/>
-      <c r="Q63" s="118"/>
-      <c r="R63" s="118"/>
-      <c r="S63" s="118"/>
-      <c r="T63" s="118"/>
-      <c r="U63" s="118"/>
-      <c r="V63" s="118"/>
-      <c r="W63" s="118"/>
-      <c r="X63" s="118"/>
-      <c r="Y63" s="118"/>
-      <c r="Z63" s="118"/>
-      <c r="AA63" s="122"/>
-      <c r="AB63" s="122"/>
-      <c r="AC63" s="122"/>
-      <c r="AD63" s="122"/>
-      <c r="AE63" s="122"/>
-      <c r="AF63" s="122"/>
-      <c r="AG63" s="122"/>
-      <c r="AH63" s="122"/>
-      <c r="AI63" s="122"/>
+      <c r="O63" s="115"/>
+      <c r="P63" s="116"/>
+      <c r="Q63" s="116"/>
+      <c r="R63" s="116"/>
+      <c r="S63" s="116"/>
+      <c r="T63" s="116"/>
+      <c r="U63" s="116"/>
+      <c r="V63" s="116"/>
+      <c r="W63" s="116"/>
+      <c r="X63" s="116"/>
+      <c r="Y63" s="116"/>
+      <c r="Z63" s="116"/>
+      <c r="AA63" s="120"/>
+      <c r="AB63" s="120"/>
+      <c r="AC63" s="120"/>
+      <c r="AD63" s="120"/>
+      <c r="AE63" s="120"/>
+      <c r="AF63" s="120"/>
+      <c r="AG63" s="120"/>
+      <c r="AH63" s="120"/>
+      <c r="AI63" s="120"/>
       <c r="AJ63" s="131"/>
       <c r="AK63" s="130"/>
-      <c r="AL63" s="124"/>
-      <c r="AM63" s="124"/>
+      <c r="AL63" s="122"/>
+      <c r="AM63" s="122"/>
     </row>
     <row r="64" spans="1:39">
       <c r="A64" s="9"/>
@@ -5388,31 +5388,31 @@
       <c r="L64" s="62"/>
       <c r="M64" s="62"/>
       <c r="N64" s="62"/>
-      <c r="O64" s="117"/>
-      <c r="P64" s="118"/>
-      <c r="Q64" s="118"/>
-      <c r="R64" s="118"/>
-      <c r="S64" s="118"/>
-      <c r="T64" s="118"/>
-      <c r="U64" s="118"/>
-      <c r="V64" s="118"/>
-      <c r="W64" s="118"/>
-      <c r="X64" s="118"/>
-      <c r="Y64" s="118"/>
-      <c r="Z64" s="118"/>
-      <c r="AA64" s="122"/>
-      <c r="AB64" s="122"/>
-      <c r="AC64" s="122"/>
-      <c r="AD64" s="122"/>
-      <c r="AE64" s="122"/>
-      <c r="AF64" s="122"/>
-      <c r="AG64" s="122"/>
-      <c r="AH64" s="122"/>
-      <c r="AI64" s="122"/>
+      <c r="O64" s="115"/>
+      <c r="P64" s="116"/>
+      <c r="Q64" s="116"/>
+      <c r="R64" s="116"/>
+      <c r="S64" s="116"/>
+      <c r="T64" s="116"/>
+      <c r="U64" s="116"/>
+      <c r="V64" s="116"/>
+      <c r="W64" s="116"/>
+      <c r="X64" s="116"/>
+      <c r="Y64" s="116"/>
+      <c r="Z64" s="116"/>
+      <c r="AA64" s="120"/>
+      <c r="AB64" s="120"/>
+      <c r="AC64" s="120"/>
+      <c r="AD64" s="120"/>
+      <c r="AE64" s="120"/>
+      <c r="AF64" s="120"/>
+      <c r="AG64" s="120"/>
+      <c r="AH64" s="120"/>
+      <c r="AI64" s="120"/>
       <c r="AJ64" s="131"/>
       <c r="AK64" s="130"/>
-      <c r="AL64" s="124"/>
-      <c r="AM64" s="124"/>
+      <c r="AL64" s="122"/>
+      <c r="AM64" s="122"/>
     </row>
     <row r="65" spans="1:39">
       <c r="A65" s="9"/>
@@ -5429,31 +5429,31 @@
       <c r="L65" s="62"/>
       <c r="M65" s="62"/>
       <c r="N65" s="62"/>
-      <c r="O65" s="117"/>
-      <c r="P65" s="118"/>
-      <c r="Q65" s="118"/>
-      <c r="R65" s="118"/>
-      <c r="S65" s="118"/>
-      <c r="T65" s="118"/>
-      <c r="U65" s="118"/>
-      <c r="V65" s="118"/>
-      <c r="W65" s="118"/>
-      <c r="X65" s="118"/>
-      <c r="Y65" s="118"/>
-      <c r="Z65" s="118"/>
-      <c r="AA65" s="122"/>
-      <c r="AB65" s="122"/>
-      <c r="AC65" s="122"/>
-      <c r="AD65" s="122"/>
-      <c r="AE65" s="122"/>
-      <c r="AF65" s="122"/>
-      <c r="AG65" s="122"/>
-      <c r="AH65" s="122"/>
-      <c r="AI65" s="122"/>
+      <c r="O65" s="115"/>
+      <c r="P65" s="116"/>
+      <c r="Q65" s="116"/>
+      <c r="R65" s="116"/>
+      <c r="S65" s="116"/>
+      <c r="T65" s="116"/>
+      <c r="U65" s="116"/>
+      <c r="V65" s="116"/>
+      <c r="W65" s="116"/>
+      <c r="X65" s="116"/>
+      <c r="Y65" s="116"/>
+      <c r="Z65" s="116"/>
+      <c r="AA65" s="120"/>
+      <c r="AB65" s="120"/>
+      <c r="AC65" s="120"/>
+      <c r="AD65" s="120"/>
+      <c r="AE65" s="120"/>
+      <c r="AF65" s="120"/>
+      <c r="AG65" s="120"/>
+      <c r="AH65" s="120"/>
+      <c r="AI65" s="120"/>
       <c r="AJ65" s="131"/>
       <c r="AK65" s="130"/>
-      <c r="AL65" s="124"/>
-      <c r="AM65" s="124"/>
+      <c r="AL65" s="122"/>
+      <c r="AM65" s="122"/>
     </row>
     <row r="66" spans="1:39">
       <c r="A66" s="9"/>
@@ -5470,31 +5470,31 @@
       <c r="L66" s="62"/>
       <c r="M66" s="62"/>
       <c r="N66" s="62"/>
-      <c r="O66" s="117"/>
-      <c r="P66" s="118"/>
-      <c r="Q66" s="118"/>
-      <c r="R66" s="118"/>
-      <c r="S66" s="118"/>
-      <c r="T66" s="118"/>
-      <c r="U66" s="118"/>
-      <c r="V66" s="118"/>
-      <c r="W66" s="118"/>
-      <c r="X66" s="118"/>
-      <c r="Y66" s="118"/>
-      <c r="Z66" s="118"/>
-      <c r="AA66" s="122"/>
-      <c r="AB66" s="122"/>
-      <c r="AC66" s="122"/>
-      <c r="AD66" s="122"/>
-      <c r="AE66" s="122"/>
-      <c r="AF66" s="122"/>
-      <c r="AG66" s="122"/>
-      <c r="AH66" s="122"/>
-      <c r="AI66" s="122"/>
+      <c r="O66" s="115"/>
+      <c r="P66" s="116"/>
+      <c r="Q66" s="116"/>
+      <c r="R66" s="116"/>
+      <c r="S66" s="116"/>
+      <c r="T66" s="116"/>
+      <c r="U66" s="116"/>
+      <c r="V66" s="116"/>
+      <c r="W66" s="116"/>
+      <c r="X66" s="116"/>
+      <c r="Y66" s="116"/>
+      <c r="Z66" s="116"/>
+      <c r="AA66" s="120"/>
+      <c r="AB66" s="120"/>
+      <c r="AC66" s="120"/>
+      <c r="AD66" s="120"/>
+      <c r="AE66" s="120"/>
+      <c r="AF66" s="120"/>
+      <c r="AG66" s="120"/>
+      <c r="AH66" s="120"/>
+      <c r="AI66" s="120"/>
       <c r="AJ66" s="131"/>
       <c r="AK66" s="130"/>
-      <c r="AL66" s="124"/>
-      <c r="AM66" s="124"/>
+      <c r="AL66" s="122"/>
+      <c r="AM66" s="122"/>
     </row>
     <row r="67" ht="15.15" spans="1:39">
       <c r="A67" s="9"/>
@@ -5534,8 +5534,8 @@
       <c r="AI67" s="143"/>
       <c r="AJ67" s="144"/>
       <c r="AK67" s="130"/>
-      <c r="AL67" s="124"/>
-      <c r="AM67" s="124"/>
+      <c r="AL67" s="122"/>
+      <c r="AM67" s="122"/>
     </row>
     <row r="68" ht="15.15" spans="1:39">
       <c r="A68" s="132"/>
@@ -5577,8 +5577,8 @@
       <c r="AI68" s="69"/>
       <c r="AJ68" s="69"/>
       <c r="AK68" s="145"/>
-      <c r="AL68" s="124"/>
-      <c r="AM68" s="124"/>
+      <c r="AL68" s="122"/>
+      <c r="AM68" s="122"/>
     </row>
     <row r="69" spans="1:39">
       <c r="A69" s="138"/>
@@ -5589,39 +5589,39 @@
       <c r="D69" s="139"/>
       <c r="E69" s="139"/>
       <c r="F69" s="139"/>
-      <c r="G69" s="124"/>
-      <c r="H69" s="124"/>
-      <c r="I69" s="124"/>
-      <c r="J69" s="124"/>
-      <c r="K69" s="124"/>
-      <c r="L69" s="124"/>
-      <c r="M69" s="124"/>
-      <c r="N69" s="124"/>
-      <c r="O69" s="124"/>
-      <c r="P69" s="124"/>
-      <c r="Q69" s="124"/>
-      <c r="R69" s="124"/>
-      <c r="S69" s="124"/>
-      <c r="T69" s="124"/>
-      <c r="U69" s="124"/>
-      <c r="V69" s="124"/>
-      <c r="W69" s="124"/>
-      <c r="X69" s="124"/>
-      <c r="Y69" s="124"/>
-      <c r="Z69" s="124"/>
-      <c r="AA69" s="124"/>
-      <c r="AB69" s="124"/>
-      <c r="AC69" s="124"/>
-      <c r="AD69" s="124"/>
-      <c r="AE69" s="124"/>
-      <c r="AF69" s="124"/>
-      <c r="AG69" s="124"/>
-      <c r="AH69" s="124"/>
-      <c r="AI69" s="124"/>
-      <c r="AJ69" s="124"/>
-      <c r="AK69" s="124"/>
-      <c r="AL69" s="124"/>
-      <c r="AM69" s="124"/>
+      <c r="G69" s="122"/>
+      <c r="H69" s="122"/>
+      <c r="I69" s="122"/>
+      <c r="J69" s="122"/>
+      <c r="K69" s="122"/>
+      <c r="L69" s="122"/>
+      <c r="M69" s="122"/>
+      <c r="N69" s="122"/>
+      <c r="O69" s="122"/>
+      <c r="P69" s="122"/>
+      <c r="Q69" s="122"/>
+      <c r="R69" s="122"/>
+      <c r="S69" s="122"/>
+      <c r="T69" s="122"/>
+      <c r="U69" s="122"/>
+      <c r="V69" s="122"/>
+      <c r="W69" s="122"/>
+      <c r="X69" s="122"/>
+      <c r="Y69" s="122"/>
+      <c r="Z69" s="122"/>
+      <c r="AA69" s="122"/>
+      <c r="AB69" s="122"/>
+      <c r="AC69" s="122"/>
+      <c r="AD69" s="122"/>
+      <c r="AE69" s="122"/>
+      <c r="AF69" s="122"/>
+      <c r="AG69" s="122"/>
+      <c r="AH69" s="122"/>
+      <c r="AI69" s="122"/>
+      <c r="AJ69" s="122"/>
+      <c r="AK69" s="122"/>
+      <c r="AL69" s="122"/>
+      <c r="AM69" s="122"/>
     </row>
     <row r="70" spans="1:39">
       <c r="A70" s="138"/>
@@ -5632,39 +5632,39 @@
       <c r="D70" s="140"/>
       <c r="E70" s="140"/>
       <c r="F70" s="140"/>
-      <c r="G70" s="124"/>
-      <c r="H70" s="124"/>
-      <c r="I70" s="124"/>
-      <c r="J70" s="124"/>
-      <c r="K70" s="124"/>
-      <c r="L70" s="124"/>
-      <c r="M70" s="124"/>
-      <c r="N70" s="124"/>
-      <c r="O70" s="124"/>
-      <c r="P70" s="124"/>
-      <c r="Q70" s="124"/>
-      <c r="R70" s="124"/>
-      <c r="S70" s="124"/>
-      <c r="T70" s="124"/>
-      <c r="U70" s="124"/>
-      <c r="V70" s="124"/>
-      <c r="W70" s="124"/>
-      <c r="X70" s="124"/>
-      <c r="Y70" s="124"/>
-      <c r="Z70" s="124"/>
-      <c r="AA70" s="124"/>
-      <c r="AB70" s="124"/>
-      <c r="AC70" s="124"/>
-      <c r="AD70" s="124"/>
-      <c r="AE70" s="124"/>
-      <c r="AF70" s="124"/>
-      <c r="AG70" s="124"/>
-      <c r="AH70" s="124"/>
-      <c r="AI70" s="124"/>
-      <c r="AJ70" s="124"/>
-      <c r="AK70" s="124"/>
-      <c r="AL70" s="124"/>
-      <c r="AM70" s="124"/>
+      <c r="G70" s="122"/>
+      <c r="H70" s="122"/>
+      <c r="I70" s="122"/>
+      <c r="J70" s="122"/>
+      <c r="K70" s="122"/>
+      <c r="L70" s="122"/>
+      <c r="M70" s="122"/>
+      <c r="N70" s="122"/>
+      <c r="O70" s="122"/>
+      <c r="P70" s="122"/>
+      <c r="Q70" s="122"/>
+      <c r="R70" s="122"/>
+      <c r="S70" s="122"/>
+      <c r="T70" s="122"/>
+      <c r="U70" s="122"/>
+      <c r="V70" s="122"/>
+      <c r="W70" s="122"/>
+      <c r="X70" s="122"/>
+      <c r="Y70" s="122"/>
+      <c r="Z70" s="122"/>
+      <c r="AA70" s="122"/>
+      <c r="AB70" s="122"/>
+      <c r="AC70" s="122"/>
+      <c r="AD70" s="122"/>
+      <c r="AE70" s="122"/>
+      <c r="AF70" s="122"/>
+      <c r="AG70" s="122"/>
+      <c r="AH70" s="122"/>
+      <c r="AI70" s="122"/>
+      <c r="AJ70" s="122"/>
+      <c r="AK70" s="122"/>
+      <c r="AL70" s="122"/>
+      <c r="AM70" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="447">

--- a/$Resource/Valeo_STLA _SASSY3_EOL_Template.xlsx
+++ b/$Resource/Valeo_STLA _SASSY3_EOL_Template.xlsx
@@ -609,10 +609,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -679,14 +679,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,14 +703,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,14 +726,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -764,6 +756,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -785,14 +785,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -852,43 +852,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,31 +882,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,7 +900,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,49 +1008,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,25 +1026,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1592,16 +1592,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1655,16 +1655,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1691,7 +1691,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1709,130 +1709,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="49" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2581,7 +2581,7 @@
   <dimension ref="A1:AM70"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:AJ26"/>
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
